--- a/project/test/12 O/data_with_circle_distances.xlsx
+++ b/project/test/12 O/data_with_circle_distances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\EGE YL\kobuki\project\test\12 O\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kobuki\project\test\12 O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB758811-BEDA-4636-940D-D7E9BF48C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04EB023-6BB1-4C31-81B3-3FBFD6CBD154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pozyx X</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Pozyx Y</t>
   </si>
   <si>
-    <t>UWB Closest Distance to Circle</t>
+    <t>UWB Error</t>
   </si>
   <si>
     <t>Robot X</t>
@@ -37,10 +37,16 @@
     <t>Robot Y</t>
   </si>
   <si>
-    <t>Odometry Closest Distance to Circle</t>
+    <t>Odometry Error</t>
   </si>
   <si>
-    <t>Combined</t>
+    <t>Combined (80% Odometry, 20% UWB)</t>
+  </si>
+  <si>
+    <t>Combined (20% Odometry, 80% UWB)</t>
+  </si>
+  <si>
+    <t>Combined (50% Odometry, 50% UWB)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UWB Closest Distance to Circle</c:v>
+                  <c:v>UWB Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1353,7 +1359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8147-4645-8FF9-392AAB0CC090}"/>
+              <c16:uniqueId val="{00000000-849E-4211-887A-C7870286B480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1366,7 +1372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Odometry Closest Distance to Circle</c:v>
+                  <c:v>Odometry Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2565,7 +2571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8147-4645-8FF9-392AAB0CC090}"/>
+              <c16:uniqueId val="{00000001-849E-4211-887A-C7870286B480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2578,7 +2584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Combined</c:v>
+                  <c:v>Combined (80% Odometry, 20% UWB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3777,7 +3783,2431 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8147-4645-8FF9-392AAB0CC090}"/>
+              <c16:uniqueId val="{00000002-849E-4211-887A-C7870286B480}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined (20% Odometry, 80% UWB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$H$2:$H$391</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="390"/>
+                <c:pt idx="0">
+                  <c:v>53.036609518021763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.891217743762077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.532551558626437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.736392271979007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.473329007516632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.821733120880253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.68414807035397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.607848276178267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.073292085798307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.073292085798307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.996754048542883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.963146826874983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.498517772434752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.75962144944215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.67053404451044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.985232131060641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.744370071628239</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.002910519253703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.945446291703767</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.613428723033209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.05504697575816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.05504697575816</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.385590166928793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.276918290084822</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.887751693250088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.480536943768307</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.68414807035397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.702091612726967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.422533348528489</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.777175373005683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.189644160114312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.110369953345803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.03027392838694</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.906387360996177</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.234330883688749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.559010772009422</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.050631118086322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.867617450660703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.51920503509173</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.168751250257273</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.026431087024321</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.989367243565269</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.785057517566749</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.51920503509173</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.336589432908568</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.602243148918028</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.602243148918028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.209026932519741</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.66249639407588</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.909474537672669</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.275033037199041</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.297007694301293</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.949356341298788</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.846362455855157</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.601638428005302</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.662027926475098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.570595504948507</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.92903637943455</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.725817072519384</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57.246179980247867</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50.799389708586389</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.873983934056561</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.744370071628239</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.11311500017564</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50.799389708586389</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50.570595504948507</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49.774355974845641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>49.927559900459173</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>48.258711289080573</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.409930003353928</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>47.613428723033209</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.124583673701821</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.924875257172701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.272470964456453</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38.054849065375493</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38.626185626306693</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.276918290084822</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43.404157899442637</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42.607848276178267</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.967421288902713</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39.426884855798562</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.087194630393242</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43.340662306096533</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49.256643778558541</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50.773349195294031</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>54.511453673711173</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71.240166276410349</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.475405918381725</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>92.183240010221908</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>105.8439385994064</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>120.6057028160766</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>123.70943460999671</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>123.5290929146677</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>125.07527064489869</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>128.2813256224965</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>135.2547711251955</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>126.1718269791004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>126.76676394482639</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>114.4774166191628</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>88.566203548035645</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>52.635671953865952</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36.861781648823012</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.055549133315001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43.030907345020672</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78.770784850637426</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>102.0294698047708</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>112.08306268313549</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>106.9683996307843</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104.02303760329811</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>101.8101806186915</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>103.01957424291621</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>94.58821293445672</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>82.087410570849883</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>75.8351325400169</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>54.220850921352188</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41.343436454777468</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33.027234369079792</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42.654057422535722</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>64.847703731839687</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>70.404991328199984</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>73.536351681489265</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>84.299860881922399</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>87.797034443842932</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>89.422932098161226</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>94.932794294265449</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>92.268208502962267</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97.317614383639665</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>101.41928425805401</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>110.1397888387507</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>114.6170448705456</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>118.39430664768889</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>116.19231440831859</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>99.238026439368582</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>85.709147543909978</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>69.941989805484994</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>54.290749394728408</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>36.915494208115348</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57.169799070506528</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>60.327213065696398</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>55.88963495128489</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44.888783412151717</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>46.096435921660436</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>46.2762887663703</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>52.862757102156529</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>73.001591593164861</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>70.147845234302352</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>66.80655523503475</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>68.799048983421727</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>69.085402599713234</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>71.250135075973688</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>74.527216871797663</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>78.513725829752843</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>78.712079756310075</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>84.491660242334845</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>87.300976595317763</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>85.497645275154241</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>85.062488988028832</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>86.6574699194895</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>90.56725161580944</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>92.75285392591914</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>97.190266416206669</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>98.430972646077507</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>99.936198043375128</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>103.930516989503</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>101.8107732060446</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>100.99235363592641</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>94.952281689402781</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>92.505450049553687</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>91.178658850460295</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85.228430014126417</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>85.67313540596848</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>93.53873262611225</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>107.1039894507193</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>106.95241258433219</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>115.5723211655595</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>117.11895721901109</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>118.52028091733619</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>123.3245046245264</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>121.91934975896579</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>117.6080393923304</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>112.4641555515546</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>105.3714595918031</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>106.4026726665813</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>107.8283124348133</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>109.2915834343769</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>110.89491497040569</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>116.2585661335285</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>114.8161364467294</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>117.73861886148831</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>119.98887688345989</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>117.09423698447431</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>114.944244368993</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>111.7184911243703</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>107.3919635304329</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>102.5598307318199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>91.134492965536296</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>84.050063349856032</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>77.889254112883691</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>80.01455462918068</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>79.944436908000057</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>84.688526786417754</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>85.536607366577599</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>82.963169752707316</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>77.522610978465124</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>76.303026188036142</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>73.082685879279893</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>60.243499843701933</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>51.384034711227088</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>25.22019625171486</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>21.501809147908691</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>27.79275818125878</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>32.842538894500109</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>35.240313320833458</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>48.607411037560162</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>49.176594260046002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>51.333774444105849</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>51.493429389402088</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>50.232005769998693</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>52.259008125287117</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>51.98192762004917</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42.855220056270987</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>33.278464652086022</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22.739833977803819</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10.56146330769427</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16.36257651574795</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>29.83970025030376</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>41.740136194172081</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>64.630743246813225</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>67.691912299901119</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>68.872187339242288</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>70.861420829338073</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>68.61530682801839</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>69.444420379868177</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>69.939952203767163</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>67.026987655897727</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>63.150841253093162</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>64.806141760069636</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>64.6673305309846</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>65.173038196434348</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>68.855755924645749</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>69.102084119299931</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>64.886359232558561</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>64.71204167754405</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>66.613880271935216</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>65.396622495607517</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>64.069122040681222</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>56.932940415006797</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>55.027622329586897</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>52.393600232961447</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>53.139803923064619</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>52.037611145360508</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>51.783027769547203</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>50.92808766890812</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>51.506784727736118</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>53.006978004072828</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>54.10340743025413</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>53.636235597897311</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>52.239289767300043</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>52.539100718623253</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>50.503163892972218</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>51.324233188107122</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>52.557995824186541</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>53.278955236654532</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>49.289169830579027</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>64.280278923438487</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>85.133062788644935</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>85.767929489168097</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>86.791387208158994</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>85.621511765362456</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>86.606382205431103</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>89.202008443393566</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>89.743236911976823</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>76.522049608408494</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>63.753685100328497</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>58.543405144611867</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>58.09499445926572</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>62.427350773097857</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>62.910763774640643</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>60.478126178772172</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>54.255355362025703</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>50.614134443100973</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44.987563587919936</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>42.242954867763189</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>41.599659823510137</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>54.446900410708217</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>70.1788772001577</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>76.405654766048755</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>80.489782532173791</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>83.685768983197931</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>90.073857438832732</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>103.28205413444429</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>105.6652074948466</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>109.06301550871071</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>115.0923418555778</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>111.4363992699312</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>112.064098434153</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>98.965593672607113</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>87.268511108616224</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>78.11083914790234</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>68.003972797958852</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>52.937114938518931</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>45.264190363338869</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>45.487320432560693</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>47.841865735227429</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>46.091664766261196</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>56.212377518061928</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>62.331612744803763</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>71.376772281115976</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>77.74103329181699</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>80.698704290995565</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>84.172383171277446</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>87.616590308507242</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>91.419880373066064</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>98.247232765779984</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>100.491286513267</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>104.5816989061402</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>108.95662859464279</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>109.31149651102341</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>105.3860782719358</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>105.01376412100799</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>100.2123149788469</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>91.742289117642486</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>87.001075566953745</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>77.358008905869923</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>76.161543186400479</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>79.199659230465443</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>81.258117298364738</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>81.686953165608529</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>76.180593612042372</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>69.659083450656283</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>54.796514424978348</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>59.405924872981821</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>51.274475534527888</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>46.675383680740843</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>43.95770246342677</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>38.939487254400689</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>46.69562193072511</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>46.370030381360358</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>46.675421035457752</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>54.715372761041003</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>55.112548394473563</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>54.88375988344788</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>53.382311771046723</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>54.872575077503917</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>57.559394224900011</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>58.756078800969867</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>62.924800966133759</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>66.393705475304301</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>68.380936302800961</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>71.26001833682821</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>74.998197074532115</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>82.660044769222495</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>85.029627928638092</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>86.894625551776429</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>72.829512839173233</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>60.796255752727568</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>49.44736292043244</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>36.471836720459628</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>39.142546395284668</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>28.089493310432228</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>36.80634576729399</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>34.469916881014939</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>28.34040655197569</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>30.486471028221011</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>61.825016342854049</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>51.881870375789049</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>50.032766108715897</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>47.674918274944602</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>40.995174419915749</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>34.525583149354361</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22.89262916606285</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>23.66528366379584</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>38.950206900278999</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>40.577106823753098</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>38.541907339756293</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>34.690612598149492</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>27.503609986168389</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>20.29457212696807</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>16.33649802946648</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>16.944990056954751</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>12.588084393803589</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>13.005557844917851</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>9.9216447868696829</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>10.876453148603151</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>13.70912741102984</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>21.99487194402036</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>24.988719457785141</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>31.605662132035519</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>38.225461531264749</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>37.154849674669073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-849E-4211-887A-C7870286B480}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined (50% Odometry, 50% UWB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$I$2:$I$391</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="390"/>
+                <c:pt idx="0">
+                  <c:v>52.16936597208695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.203496113174651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.604329747464867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.106730193310227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.06731565302124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.535068223873509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.69907756729458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.651390195934773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.192292576947303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.192292576947303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.14445630366265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.248451790120207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.708058631095071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.746248429224693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.315568801142383</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.76225510523625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.361716318090998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.273304097856908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.73738895563821</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.779877975219108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.6808893831722</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.6808893831722</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.637478877653848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.694558954626359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.201329831604653</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.196820613178552</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.69907756729458</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.210292281277702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.660568366153647</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.257219631451903</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.515012623394803</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.465466244164467</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.415406228565189</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.962977123945961</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.917941825628823</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.24586675582924</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.303129472127303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.313745929986283</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.22098817025568</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.126954554734141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.163004452713551</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.764839550551642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.262145971802568</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.22098817025568</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.231853418891212</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.272886991397122</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.272886991397122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41.027126856148193</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.435545269620768</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.339906609368768</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.693380671572747</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.832114832261652</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.364832736635087</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45.800461558232833</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.897509040826662</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49.435252477370277</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.628107213916167</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.477132760469942</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56.975120693647973</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54.80034751097827</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50.771103591189842</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.8177249821087</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.361716318090998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52.217181898433132</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50.771103591189842</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50.628107213916167</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.130457507601882</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50.226209961110328</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49.183179578998697</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49.277691275419564</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.779877975219108</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45.974349819386987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.349532059056287</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.941779376108627</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.805765689183033</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43.16285103976503</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46.694558954626359</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46.149083710474997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.651390195934773</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.265897180765933</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.406933547094241</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43.186186847881459</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47.921904137997899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>52.566056557890313</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54.15795237299335</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>57.216528675096193</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>68.497661085305367</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>75.55230176607472</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>83.355823432612567</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>92.794415750847008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>102.9421267279433</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>105.52529819213539</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>106.3747543651677</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>108.5562254505535</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>111.30491796040501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>116.3094513793498</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>111.8053810141721</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>113.0905093463326</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>106.3043323529817</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.146321840287214</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>69.46026242301258</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>60.580907847268797</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>54.859345725805333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66.391685767126546</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.541351888651946</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105.3430146768131</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>112.3958417838647</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>109.96986857567209</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.4842845184788</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109.13416069825691</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110.5045372986112</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>106.4453024700515</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>99.570292846680843</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>96.860453548053044</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>84.188050111955874</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>76.924511328713038</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>72.664032679580259</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>79.458707327641889</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>94.682085177038232</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>98.706138248736238</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>101.29960876166</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>109.0618491050548</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>112.2561159308042</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>114.0864561539545</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>118.3701821661606</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>117.5087418152326</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>121.5010233162233</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>124.561339685116</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>131.2573782615986</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134.52276781664639</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>137.45967616796929</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136.86260407984901</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>126.8749615132044</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>119.4294437652194</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>110.2617112960086</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>101.13551956476741</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>90.789486270851</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>103.9478896669048</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>106.5609297179732</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>104.21562110392961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97.9877461312538</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>99.287182193500826</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>99.791207058356974</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>104.3547395137677</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>117.3706104159523</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>116.2357588467007</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>114.2738807266818</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>116.0061058131363</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>116.7219898538651</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>118.5268442151114</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>120.7769122765075</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>123.31733801847879</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>123.6618518062794</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>127.35388028186399</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>129.41127379598331</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>128.53119964294649</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>128.33918485960371</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>129.28375634816081</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>131.71400535881321</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>133.2779568436778</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>135.7521197472843</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>136.73599862580249</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>137.36076523064409</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>139.76514981490789</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>138.48809576499161</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>137.8192001700433</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>133.72682893614419</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>131.59938843209869</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>130.60305551702959</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>126.37995847162981</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>126.3019907113639</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>130.85506346658181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>138.77064098135961</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>138.39169881539189</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>143.2073625574597</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>143.64462719356561</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>144.0897251006937</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>146.42981012119591</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>144.90378069947079</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>141.16123807979179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>137.38769283644959</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>132.51456666327391</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>132.03486585593029</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>132.12738541582229</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>131.97479574607871</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>132.42066985069559</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>134.98872665188711</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>132.55371897673899</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>133.9506864426377</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>134.28268830766501</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>131.05337983457341</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>129.08943971017749</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>126.1091324120065</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>122.1632174326411</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>118.3871869053536</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>109.8768432498611</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>104.1958165552073</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>99.102090550337778</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>99.311288084445209</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>97.849826130184056</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>99.727981215175362</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>98.688441364969719</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>95.876505229026861</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>91.247134413056415</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>89.160672589064177</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>85.585273234183546</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>76.303317179742578</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>69.22316584415762</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>51.644626046997359</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>47.762740023663412</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>50.092215351297682</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>51.981352342042207</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>51.302650820136591</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>58.517807824392257</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>57.499056175303679</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>57.364592351320773</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>55.769174639253151</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>53.116342348595538</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>53.547491779833877</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>51.552066264890243</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44.675810596949987</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>37.005358397962077</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>28.260529638931359</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>19.57963584187269</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>21.771897703287269</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>28.418101101980199</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>34.545082469891497</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>46.760058996974458</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>47.308606506828262</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>46.669191473908647</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>46.301918759731677</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43.173240377448913</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44.559354132543888</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>46.588193745583233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>46.149077170259147</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>45.377913943306851</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.152522937256443</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>49.674990576592513</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>51.385781594240093</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>55.10115717902795</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>56.80334891193263</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>55.728815136706658</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>57.042176350915547</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>59.775526955037208</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>60.748601309824608</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>60.833095821762022</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>58.104313607760837</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>58.83627207853209</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>58.126600324980188</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>59.992109550238133</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>60.979243385596867</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>62.08321836360409</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>62.763008000860282</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>64.843648490355008</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>67.090029440820047</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>68.870913890352256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>70.32472728835728</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>70.273969160794536</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>71.980425311913336</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>71.798033699939197</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>73.558831542117787</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>75.671452014937074</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>77.220673914964038</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>76.301810941534029</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>86.90098127996049</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>101.0621949083326</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>102.406224953134</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>104.4225209464965</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>104.6985938789834</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>106.4486876988443</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>109.40512569590069</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>110.64134255746021</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>103.25457424932161</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>96.420224825675291</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>94.269594385529899</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>94.908138399909376</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>98.479639367976802</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>99.952548657005195</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>99.301406173711371</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>96.371166841969114</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>94.797063457478032</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>92.294743316531367</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>91.235284726531802</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>91.992453145032641</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>100.58460728388999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>110.99824848350779</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>116.04985160576931</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>119.1844757989689</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>121.79694428786959</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>126.67651099343441</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>135.44567996387369</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>137.57018400557249</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>140.23296164730809</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>144.52894982018461</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>142.88931388150911</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>143.770928105092</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>135.84564867724899</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>129.20675645585041</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>123.78958598809911</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>117.9998643729116</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>108.83819266993071</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>104.4501861927038</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>104.74546381184641</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>106.49739752362019</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>105.8795503279334</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>112.37838269400621</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>116.5008504789751</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>122.3338046395654</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>126.5052532895385</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>128.2460457610166</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>130.67385634580151</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>132.6725086012722</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>135.1394430266856</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>139.56001945219879</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>141.20826299066229</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>143.6988578445644</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>146.13421177997071</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>146.22188916697519</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>143.65826273999059</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>143.39575039719861</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>140.40183298415241</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>134.9827269113986</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>131.66142952223279</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>125.2836582346836</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>124.44624359708089</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>125.87892366582921</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>126.788020924691</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>127.0153508331596</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>123.1531716466591</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>118.5464583057237</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>108.7032732847495</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>111.22482652587701</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>105.6677160419829</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>102.189779770272</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>99.710078649081879</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>96.3335616502319</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>100.44752612924729</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>99.633547255835367</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>99.432806183312721</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>103.5903038056498</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>102.95002846023711</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>102.029198559582</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>100.5519174714926</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>100.8167348969271</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>101.7606026218172</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>101.36746989680221</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>103.00363532725881</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>104.27030140195269</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>104.7677252023738</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>105.4946481150287</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>106.83281519944801</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>110.3392869268713</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>110.80723285686391</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>110.719056972031</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>100.9563765900435</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>92.514284960245845</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>84.410818962198164</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>74.813870743066104</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>75.235927402153607</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>67.408591601865339</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>71.32465571233115</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>68.509521607471697</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>63.705999290201653</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>63.490161399745659</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>81.708288232309087</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>74.510636599043437</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>71.955230162039925</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>68.920786341307235</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>63.600513266693163</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>58.112073304465468</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>49.265227136843627</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>48.580880600244313</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>56.129180485172469</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>56.322916762443242</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>53.469468707601997</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>49.633397977310842</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>43.570284076226699</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>37.909083374219733</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>33.418112705053431</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>32.574658924491978</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>28.394614083275201</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>26.833649673150891</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>23.37304461842643</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>22.576033156381069</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>22.20174828194968</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>26.3702027334291</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>26.528662294232451</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>29.130185170459811</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>32.200351118050833</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>31.202545087109229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-849E-4211-887A-C7870286B480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3790,11 +6220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1090555071"/>
-        <c:axId val="1090556991"/>
+        <c:axId val="439595552"/>
+        <c:axId val="439594112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1090555071"/>
+        <c:axId val="439595552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +6266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090556991"/>
+        <c:crossAx val="439594112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3844,7 +6274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1090556991"/>
+        <c:axId val="439594112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +6325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090555071"/>
+        <c:crossAx val="439595552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4542,23 +6972,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA442E3-23C9-4E29-9532-796672E5A25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F1185D-4E92-3945-D81D-7232A6610939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4864,15 +7294,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="2" sqref="C1:C1048576 F1:F1048576 G1:G1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="C1:C1048576 F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4894,8 +7324,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-59</v>
       </c>
@@ -4917,8 +7353,14 @@
       <c r="G2">
         <v>51.302122426152152</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>53.036609518021763</v>
+      </c>
+      <c r="I2">
+        <v>52.16936597208695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-60</v>
       </c>
@@ -4940,8 +7382,14 @@
       <c r="G3">
         <v>52.515774482587233</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>57.891217743762077</v>
+      </c>
+      <c r="I3">
+        <v>55.203496113174651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-58</v>
       </c>
@@ -4963,8 +7411,14 @@
       <c r="G4">
         <v>52.67610793630331</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>58.532551558626437</v>
+      </c>
+      <c r="I4">
+        <v>55.604329747464867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-58</v>
       </c>
@@ -4986,8 +7440,14 @@
       <c r="G5">
         <v>52.477068114641447</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>57.736392271979007</v>
+      </c>
+      <c r="I5">
+        <v>55.106730193310227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-57</v>
       </c>
@@ -5009,8 +7469,14 @@
       <c r="G6">
         <v>51.661302298525861</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>54.473329007516632</v>
+      </c>
+      <c r="I6">
+        <v>53.06731565302124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-56</v>
       </c>
@@ -5032,8 +7498,14 @@
       <c r="G7">
         <v>50.248403326866757</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>48.821733120880253</v>
+      </c>
+      <c r="I7">
+        <v>49.535068223873509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-59</v>
       </c>
@@ -5055,8 +7527,14 @@
       <c r="G8">
         <v>48.714007064235197</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>42.68414807035397</v>
+      </c>
+      <c r="I8">
+        <v>45.69907756729458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-58</v>
       </c>
@@ -5078,8 +7556,14 @@
       <c r="G9">
         <v>48.694932115691273</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>42.607848276178267</v>
+      </c>
+      <c r="I9">
+        <v>45.651390195934773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-59</v>
       </c>
@@ -5101,8 +7585,14 @@
       <c r="G10">
         <v>49.311293068096283</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>45.073292085798307</v>
+      </c>
+      <c r="I10">
+        <v>47.192292576947303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-59</v>
       </c>
@@ -5124,8 +7614,14 @@
       <c r="G11">
         <v>49.311293068096283</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>45.073292085798307</v>
+      </c>
+      <c r="I11">
+        <v>47.192292576947303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-58</v>
       </c>
@@ -5147,8 +7643,14 @@
       <c r="G12">
         <v>49.292158558782432</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>44.996754048542883</v>
+      </c>
+      <c r="I12">
+        <v>47.14445630366265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-60</v>
       </c>
@@ -5170,8 +7672,14 @@
       <c r="G13">
         <v>48.533756753365452</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>41.963146826874983</v>
+      </c>
+      <c r="I13">
+        <v>45.248451790120207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-59</v>
       </c>
@@ -5193,8 +7701,14 @@
       <c r="G14">
         <v>47.917599489755389</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>39.498517772434752</v>
+      </c>
+      <c r="I14">
+        <v>43.708058631095071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-60</v>
       </c>
@@ -5216,8 +7730,14 @@
       <c r="G15">
         <v>48.732875409007242</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>42.75962144944215</v>
+      </c>
+      <c r="I15">
+        <v>45.746248429224693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-62</v>
       </c>
@@ -5239,8 +7759,14 @@
       <c r="G16">
         <v>50.960603557774313</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>51.67053404451044</v>
+      </c>
+      <c r="I16">
+        <v>51.315568801142383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-61</v>
       </c>
@@ -5262,8 +7788,14 @@
       <c r="G17">
         <v>51.539278079411872</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>53.985232131060641</v>
+      </c>
+      <c r="I17">
+        <v>52.76225510523625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-63</v>
       </c>
@@ -5285,8 +7817,14 @@
       <c r="G18">
         <v>50.979062564553757</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>51.744370071628239</v>
+      </c>
+      <c r="I18">
+        <v>51.361716318090998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-61</v>
       </c>
@@ -5308,8 +7846,14 @@
       <c r="G19">
         <v>50.543697676460127</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>50.002910519253703</v>
+      </c>
+      <c r="I19">
+        <v>50.273304097856908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-60</v>
       </c>
@@ -5331,8 +7875,14 @@
       <c r="G20">
         <v>49.529331619572638</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>45.945446291703767</v>
+      </c>
+      <c r="I20">
+        <v>47.73738895563821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-61</v>
       </c>
@@ -5354,8 +7904,14 @@
       <c r="G21">
         <v>49.946327227405007</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>47.613428723033209</v>
+      </c>
+      <c r="I21">
+        <v>48.779877975219108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-59</v>
       </c>
@@ -5377,8 +7933,14 @@
       <c r="G22">
         <v>50.306731790586241</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>49.05504697575816</v>
+      </c>
+      <c r="I22">
+        <v>49.6808893831722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-59</v>
       </c>
@@ -5400,8 +7962,14 @@
       <c r="G23">
         <v>50.306731790586241</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>49.05504697575816</v>
+      </c>
+      <c r="I23">
+        <v>49.6808893831722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-58</v>
       </c>
@@ -5423,8 +7991,14 @@
       <c r="G24">
         <v>49.889367588378903</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>47.385590166928793</v>
+      </c>
+      <c r="I24">
+        <v>48.637478877653848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-59</v>
       </c>
@@ -5446,8 +8020,14 @@
       <c r="G25">
         <v>49.11219961916791</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>44.276918290084822</v>
+      </c>
+      <c r="I25">
+        <v>46.694558954626359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-59</v>
       </c>
@@ -5469,8 +8049,14 @@
       <c r="G26">
         <v>48.514907969959218</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>41.887751693250088</v>
+      </c>
+      <c r="I26">
+        <v>45.201329831604653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-59</v>
       </c>
@@ -5492,8 +8078,14 @@
       <c r="G27">
         <v>48.913104282588783</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>43.480536943768307</v>
+      </c>
+      <c r="I27">
+        <v>46.196820613178552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-59</v>
       </c>
@@ -5515,8 +8107,14 @@
       <c r="G28">
         <v>48.714007064235197</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>42.68414807035397</v>
+      </c>
+      <c r="I28">
+        <v>45.69907756729458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-59</v>
       </c>
@@ -5538,8 +8136,14 @@
       <c r="G29">
         <v>47.718492949828438</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>38.702091612726967</v>
+      </c>
+      <c r="I29">
+        <v>43.210292281277702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-58</v>
       </c>
@@ -5561,8 +8165,14 @@
       <c r="G30">
         <v>47.898603383778827</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>39.422533348528489</v>
+      </c>
+      <c r="I30">
+        <v>43.660568366153647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-60</v>
       </c>
@@ -5584,8 +8194,14 @@
       <c r="G31">
         <v>47.737263889898117</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>38.777175373005683</v>
+      </c>
+      <c r="I31">
+        <v>43.257219631451903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-55</v>
       </c>
@@ -5607,8 +8223,14 @@
       <c r="G32">
         <v>47.840381086675279</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>39.189644160114312</v>
+      </c>
+      <c r="I32">
+        <v>43.515012623394803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-54</v>
       </c>
@@ -5630,8 +8252,14 @@
       <c r="G33">
         <v>47.820562534983146</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>39.110369953345803</v>
+      </c>
+      <c r="I33">
+        <v>43.465466244164467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-53</v>
       </c>
@@ -5653,8 +8281,14 @@
       <c r="G34">
         <v>47.800538528743438</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>39.03027392838694</v>
+      </c>
+      <c r="I34">
+        <v>43.415406228565189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-54</v>
       </c>
@@ -5676,8 +8310,14 @@
       <c r="G35">
         <v>48.019566886895753</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>39.906387360996177</v>
+      </c>
+      <c r="I35">
+        <v>43.962977123945961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-53</v>
       </c>
@@ -5699,8 +8339,14 @@
       <c r="G36">
         <v>47.60155276756889</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>38.234330883688749</v>
+      </c>
+      <c r="I36">
+        <v>42.917941825628823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-50</v>
       </c>
@@ -5722,8 +8368,14 @@
       <c r="G37">
         <v>48.932722739649058</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>43.559010772009422</v>
+      </c>
+      <c r="I37">
+        <v>46.24586675582924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-51</v>
       </c>
@@ -5745,8 +8397,14 @@
       <c r="G38">
         <v>48.555627826168283</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>42.050631118086322</v>
+      </c>
+      <c r="I38">
+        <v>45.303129472127303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-51</v>
       </c>
@@ -5768,8 +8426,14 @@
       <c r="G39">
         <v>47.759874409311877</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>38.867617450660703</v>
+      </c>
+      <c r="I39">
+        <v>43.313745929986283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-49</v>
       </c>
@@ -5791,8 +8455,14 @@
       <c r="G40">
         <v>46.922771305419637</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>35.51920503509173</v>
+      </c>
+      <c r="I40">
+        <v>41.22098817025568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-47</v>
       </c>
@@ -5814,8 +8484,14 @@
       <c r="G41">
         <v>46.085157859211023</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>32.168751250257273</v>
+      </c>
+      <c r="I41">
+        <v>39.126954554734141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-48</v>
       </c>
@@ -5837,8 +8513,14 @@
       <c r="G42">
         <v>47.299577818402781</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>37.026431087024321</v>
+      </c>
+      <c r="I42">
+        <v>42.163004452713551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-50</v>
       </c>
@@ -5860,8 +8542,14 @@
       <c r="G43">
         <v>47.540311857538022</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>37.989367243565269</v>
+      </c>
+      <c r="I43">
+        <v>42.764839550551642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-50</v>
       </c>
@@ -5883,8 +8571,14 @@
       <c r="G44">
         <v>47.739234426038387</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>38.785057517566749</v>
+      </c>
+      <c r="I44">
+        <v>43.262145971802568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-49</v>
       </c>
@@ -5906,8 +8600,14 @@
       <c r="G45">
         <v>46.922771305419637</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>35.51920503509173</v>
+      </c>
+      <c r="I45">
+        <v>41.22098817025568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-49</v>
       </c>
@@ -5929,8 +8629,14 @@
       <c r="G46">
         <v>46.127117404873843</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>32.336589432908568</v>
+      </c>
+      <c r="I46">
+        <v>39.231853418891212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-50</v>
       </c>
@@ -5952,8 +8658,14 @@
       <c r="G47">
         <v>46.94353083387621</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>35.602243148918028</v>
+      </c>
+      <c r="I47">
+        <v>41.272886991397122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-50</v>
       </c>
@@ -5975,8 +8687,14 @@
       <c r="G48">
         <v>46.94353083387621</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>35.602243148918028</v>
+      </c>
+      <c r="I48">
+        <v>41.272886991397122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-55</v>
       </c>
@@ -5998,8 +8716,14 @@
       <c r="G49">
         <v>46.845226779776638</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>35.209026932519741</v>
+      </c>
+      <c r="I49">
+        <v>41.027126856148193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-53</v>
       </c>
@@ -6021,8 +8745,14 @@
       <c r="G50">
         <v>46.208594145165677</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>32.66249639407588</v>
+      </c>
+      <c r="I50">
+        <v>39.435545269620768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-51</v>
       </c>
@@ -6044,8 +8774,14 @@
       <c r="G51">
         <v>45.770338681064871</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>30.909474537672669</v>
+      </c>
+      <c r="I51">
+        <v>38.339906609368768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-48</v>
       </c>
@@ -6067,8 +8803,14 @@
       <c r="G52">
         <v>45.111728305946457</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>28.275033037199041</v>
+      </c>
+      <c r="I52">
+        <v>36.693380671572747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-51</v>
       </c>
@@ -6090,8 +8832,14 @@
       <c r="G53">
         <v>46.367221970222033</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>33.297007694301293</v>
+      </c>
+      <c r="I53">
+        <v>39.832114832261652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-52</v>
       </c>
@@ -6113,8 +8861,14 @@
       <c r="G54">
         <v>47.7803091319714</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>38.949356341298788</v>
+      </c>
+      <c r="I54">
+        <v>43.364832736635087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-51</v>
       </c>
@@ -6136,8 +8890,14 @@
       <c r="G55">
         <v>48.754560660610487</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>42.846362455855157</v>
+      </c>
+      <c r="I55">
+        <v>45.800461558232833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-53</v>
       </c>
@@ -6159,8 +8919,14 @@
       <c r="G56">
         <v>49.19337965364803</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>44.601638428005302</v>
+      </c>
+      <c r="I56">
+        <v>46.897509040826662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-54</v>
       </c>
@@ -6182,8 +8948,14 @@
       <c r="G57">
         <v>50.208477028265477</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>48.662027926475098</v>
+      </c>
+      <c r="I57">
+        <v>49.435252477370277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-58</v>
       </c>
@@ -6205,8 +8977,14 @@
       <c r="G58">
         <v>50.685618922883833</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>50.570595504948507</v>
+      </c>
+      <c r="I58">
+        <v>50.628107213916167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-66</v>
       </c>
@@ -6228,8 +9006,14 @@
       <c r="G59">
         <v>53.025229141505342</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>59.92903637943455</v>
+      </c>
+      <c r="I59">
+        <v>56.477132760469942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-66</v>
       </c>
@@ -6251,8 +9035,14 @@
       <c r="G60">
         <v>53.224424314776549</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>60.725817072519384</v>
+      </c>
+      <c r="I60">
+        <v>56.975120693647973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-62</v>
       </c>
@@ -6274,8 +9064,14 @@
       <c r="G61">
         <v>52.354515041708673</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>57.246179980247867</v>
+      </c>
+      <c r="I61">
+        <v>54.80034751097827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-61</v>
       </c>
@@ -6297,8 +9093,14 @@
       <c r="G62">
         <v>50.742817473793302</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>50.799389708586389</v>
+      </c>
+      <c r="I62">
+        <v>50.771103591189842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-62</v>
       </c>
@@ -6320,8 +9122,14 @@
       <c r="G63">
         <v>50.761466030160847</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>50.873983934056561</v>
+      </c>
+      <c r="I63">
+        <v>50.8177249821087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-63</v>
       </c>
@@ -6343,8 +9151,14 @@
       <c r="G64">
         <v>50.979062564553757</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>51.744370071628239</v>
+      </c>
+      <c r="I64">
+        <v>51.361716318090998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-60</v>
       </c>
@@ -6366,8 +9180,14 @@
       <c r="G65">
         <v>51.321248796690611</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>53.11311500017564</v>
+      </c>
+      <c r="I65">
+        <v>52.217181898433132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-61</v>
       </c>
@@ -6389,8 +9209,14 @@
       <c r="G66">
         <v>50.742817473793302</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>50.799389708586389</v>
+      </c>
+      <c r="I66">
+        <v>50.771103591189842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-58</v>
       </c>
@@ -6412,8 +9238,14 @@
       <c r="G67">
         <v>50.685618922883833</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>50.570595504948507</v>
+      </c>
+      <c r="I67">
+        <v>50.628107213916167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-58</v>
       </c>
@@ -6435,8 +9267,14 @@
       <c r="G68">
         <v>50.486559040358117</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>49.774355974845641</v>
+      </c>
+      <c r="I68">
+        <v>50.130457507601882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-60</v>
       </c>
@@ -6458,8 +9296,14 @@
       <c r="G69">
         <v>50.524860021761498</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>49.927559900459173</v>
+      </c>
+      <c r="I69">
+        <v>50.226209961110328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-59</v>
       </c>
@@ -6481,8 +9325,14 @@
       <c r="G70">
         <v>50.107647868916843</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>48.258711289080573</v>
+      </c>
+      <c r="I70">
+        <v>49.183179578998697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-61</v>
       </c>
@@ -6504,8 +9354,14 @@
       <c r="G71">
         <v>50.145452547485178</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>48.409930003353928</v>
+      </c>
+      <c r="I71">
+        <v>49.277691275419564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-61</v>
       </c>
@@ -6527,8 +9383,14 @@
       <c r="G72">
         <v>49.946327227405007</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>47.613428723033209</v>
+      </c>
+      <c r="I72">
+        <v>48.779877975219108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-65</v>
       </c>
@@ -6550,8 +9412,14 @@
       <c r="G73">
         <v>48.82411596507216</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>43.124583673701821</v>
+      </c>
+      <c r="I73">
+        <v>45.974349819386987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-62</v>
       </c>
@@ -6573,8 +9441,14 @@
       <c r="G74">
         <v>47.77418886093988</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>38.924875257172701</v>
+      </c>
+      <c r="I74">
+        <v>43.349532059056287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-64</v>
       </c>
@@ -6596,8 +9470,14 @@
       <c r="G75">
         <v>47.611087787760823</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>38.272470964456453</v>
+      </c>
+      <c r="I75">
+        <v>42.941779376108627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-61</v>
       </c>
@@ -6619,8 +9499,14 @@
       <c r="G76">
         <v>47.556682312990567</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>38.054849065375493</v>
+      </c>
+      <c r="I76">
+        <v>42.805765689183033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-58</v>
       </c>
@@ -6642,8 +9528,14 @@
       <c r="G77">
         <v>47.699516453223367</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>38.626185626306693</v>
+      </c>
+      <c r="I77">
+        <v>43.16285103976503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-59</v>
       </c>
@@ -6665,8 +9557,14 @@
       <c r="G78">
         <v>49.11219961916791</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>44.276918290084822</v>
+      </c>
+      <c r="I78">
+        <v>46.694558954626359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-58</v>
       </c>
@@ -6688,8 +9586,14 @@
       <c r="G79">
         <v>48.894009521507357</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>43.404157899442637</v>
+      </c>
+      <c r="I79">
+        <v>46.149083710474997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-58</v>
       </c>
@@ -6711,8 +9615,14 @@
       <c r="G80">
         <v>48.694932115691273</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>42.607848276178267</v>
+      </c>
+      <c r="I80">
+        <v>45.651390195934773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-53</v>
       </c>
@@ -6734,8 +9644,14 @@
       <c r="G81">
         <v>48.564373072629159</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>39.967421288902713</v>
+      </c>
+      <c r="I81">
+        <v>44.265897180765933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-53</v>
       </c>
@@ -6757,8 +9673,14 @@
       <c r="G82">
         <v>49.386982238389919</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>39.426884855798562</v>
+      </c>
+      <c r="I82">
+        <v>44.406933547094241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-52</v>
       </c>
@@ -6780,8 +9702,14 @@
       <c r="G83">
         <v>49.285179065369682</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>37.087194630393242</v>
+      </c>
+      <c r="I83">
+        <v>43.186186847881459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-55</v>
       </c>
@@ -6803,8 +9731,14 @@
       <c r="G84">
         <v>52.503145969899272</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>43.340662306096533</v>
+      </c>
+      <c r="I84">
+        <v>47.921904137997899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-53</v>
       </c>
@@ -6826,8 +9760,14 @@
       <c r="G85">
         <v>55.875469337222093</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>49.256643778558541</v>
+      </c>
+      <c r="I85">
+        <v>52.566056557890313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-48</v>
       </c>
@@ -6849,8 +9789,14 @@
       <c r="G86">
         <v>57.542555550692668</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>50.773349195294031</v>
+      </c>
+      <c r="I86">
+        <v>54.15795237299335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-41</v>
       </c>
@@ -6872,8 +9818,14 @@
       <c r="G87">
         <v>59.921603676481212</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>54.511453673711173</v>
+      </c>
+      <c r="I87">
+        <v>57.216528675096193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-29</v>
       </c>
@@ -6895,8 +9847,14 @@
       <c r="G88">
         <v>65.755155894200385</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>71.240166276410349</v>
+      </c>
+      <c r="I88">
+        <v>68.497661085305367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-18</v>
       </c>
@@ -6918,8 +9876,14 @@
       <c r="G89">
         <v>69.62919761376773</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>81.475405918381725</v>
+      </c>
+      <c r="I89">
+        <v>75.55230176607472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-10</v>
       </c>
@@ -6941,8 +9905,14 @@
       <c r="G90">
         <v>74.528406855003226</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>92.183240010221908</v>
+      </c>
+      <c r="I90">
+        <v>83.355823432612567</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-2</v>
       </c>
@@ -6964,8 +9934,14 @@
       <c r="G91">
         <v>79.744892902287617</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>105.8439385994064</v>
+      </c>
+      <c r="I91">
+        <v>92.794415750847008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -6987,8 +9963,14 @@
       <c r="G92">
         <v>85.278550639809993</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>120.6057028160766</v>
+      </c>
+      <c r="I92">
+        <v>102.9421267279433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>31</v>
       </c>
@@ -7010,8 +9992,14 @@
       <c r="G93">
         <v>87.341161774274113</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>123.70943460999671</v>
+      </c>
+      <c r="I93">
+        <v>105.52529819213539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>44</v>
       </c>
@@ -7033,8 +10021,14 @@
       <c r="G94">
         <v>89.220415815667778</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>123.5290929146677</v>
+      </c>
+      <c r="I94">
+        <v>106.3747543651677</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>60</v>
       </c>
@@ -7056,8 +10050,14 @@
       <c r="G95">
         <v>92.037180256208273</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>125.07527064489869</v>
+      </c>
+      <c r="I95">
+        <v>108.5562254505535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>73</v>
       </c>
@@ -7079,8 +10079,14 @@
       <c r="G96">
         <v>94.328510298313518</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>128.2813256224965</v>
+      </c>
+      <c r="I96">
+        <v>111.30491796040501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>102</v>
       </c>
@@ -7102,8 +10108,14 @@
       <c r="G97">
         <v>97.364131633504144</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>135.2547711251955</v>
+      </c>
+      <c r="I97">
+        <v>116.3094513793498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>123</v>
       </c>
@@ -7125,8 +10137,14 @@
       <c r="G98">
         <v>97.438935049243767</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>126.1718269791004</v>
+      </c>
+      <c r="I98">
+        <v>111.8053810141721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>140</v>
       </c>
@@ -7148,8 +10166,14 @@
       <c r="G99">
         <v>99.414254747838783</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>126.76676394482639</v>
+      </c>
+      <c r="I99">
+        <v>113.0905093463326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>167</v>
       </c>
@@ -7171,8 +10195,14 @@
       <c r="G100">
         <v>98.131248086800667</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>114.4774166191628</v>
+      </c>
+      <c r="I100">
+        <v>106.3043323529817</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201</v>
       </c>
@@ -7194,8 +10224,14 @@
       <c r="G101">
         <v>93.726440132538784</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>88.566203548035645</v>
+      </c>
+      <c r="I101">
+        <v>91.146321840287214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>261</v>
       </c>
@@ -7217,8 +10253,14 @@
       <c r="G102">
         <v>86.284852892159222</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>52.635671953865952</v>
+      </c>
+      <c r="I102">
+        <v>69.46026242301258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>287</v>
       </c>
@@ -7240,8 +10282,14 @@
       <c r="G103">
         <v>84.300034045714597</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>36.861781648823012</v>
+      </c>
+      <c r="I103">
+        <v>60.580907847268797</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>317</v>
       </c>
@@ -7263,8 +10311,14 @@
       <c r="G104">
         <v>83.663142318295655</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>26.055549133315001</v>
+      </c>
+      <c r="I104">
+        <v>54.859345725805333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>342</v>
       </c>
@@ -7286,8 +10340,14 @@
       <c r="G105">
         <v>89.752464189232441</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>43.030907345020672</v>
+      </c>
+      <c r="I105">
+        <v>66.391685767126546</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>391</v>
       </c>
@@ -7309,8 +10369,14 @@
       <c r="G106">
         <v>100.31191892666649</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>78.770784850637426</v>
+      </c>
+      <c r="I106">
+        <v>89.541351888651946</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>416</v>
       </c>
@@ -7332,8 +10398,14 @@
       <c r="G107">
         <v>108.6565595488554</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>102.0294698047708</v>
+      </c>
+      <c r="I107">
+        <v>105.3430146768131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>431</v>
       </c>
@@ -7355,8 +10427,14 @@
       <c r="G108">
         <v>112.708620884594</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>112.08306268313549</v>
+      </c>
+      <c r="I108">
+        <v>112.3958417838647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>442</v>
       </c>
@@ -7378,8 +10456,14 @@
       <c r="G109">
         <v>112.9713375205599</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>106.9683996307843</v>
+      </c>
+      <c r="I109">
+        <v>109.96986857567209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>446</v>
       </c>
@@ -7401,8 +10485,14 @@
       <c r="G110">
         <v>114.9455314336596</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>104.02303760329811</v>
+      </c>
+      <c r="I110">
+        <v>109.4842845184788</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>455</v>
       </c>
@@ -7424,8 +10514,14 @@
       <c r="G111">
         <v>116.45814077782239</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>101.8101806186915</v>
+      </c>
+      <c r="I111">
+        <v>109.13416069825691</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>460</v>
       </c>
@@ -7447,8 +10543,14 @@
       <c r="G112">
         <v>117.9895003543063</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>103.01957424291621</v>
+      </c>
+      <c r="I112">
+        <v>110.5045372986112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>459</v>
       </c>
@@ -7470,8 +10572,14 @@
       <c r="G113">
         <v>118.3023920056463</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>94.58821293445672</v>
+      </c>
+      <c r="I113">
+        <v>106.4453024700515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>458</v>
       </c>
@@ -7493,8 +10601,14 @@
       <c r="G114">
         <v>117.0531751225118</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>82.087410570849883</v>
+      </c>
+      <c r="I114">
+        <v>99.570292846680843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>463</v>
       </c>
@@ -7516,8 +10630,14 @@
       <c r="G115">
         <v>117.8857745560892</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>75.8351325400169</v>
+      </c>
+      <c r="I115">
+        <v>96.860453548053044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>463</v>
       </c>
@@ -7539,8 +10659,14 @@
       <c r="G116">
         <v>114.1552493025596</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>54.220850921352188</v>
+      </c>
+      <c r="I116">
+        <v>84.188050111955874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>466</v>
       </c>
@@ -7562,8 +10688,14 @@
       <c r="G117">
         <v>112.5055862026486</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>41.343436454777468</v>
+      </c>
+      <c r="I117">
+        <v>76.924511328713038</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>470</v>
       </c>
@@ -7585,8 +10717,14 @@
       <c r="G118">
         <v>112.3008309900807</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>33.027234369079792</v>
+      </c>
+      <c r="I118">
+        <v>72.664032679580259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>468</v>
       </c>
@@ -7608,8 +10746,14 @@
       <c r="G119">
         <v>116.26335723274811</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>42.654057422535722</v>
+      </c>
+      <c r="I119">
+        <v>79.458707327641889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>474</v>
       </c>
@@ -7631,8 +10775,14 @@
       <c r="G120">
         <v>124.51646662223681</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>64.847703731839687</v>
+      </c>
+      <c r="I120">
+        <v>94.682085177038232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>480</v>
       </c>
@@ -7654,8 +10804,14 @@
       <c r="G121">
         <v>127.00728516927251</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>70.404991328199984</v>
+      </c>
+      <c r="I121">
+        <v>98.706138248736238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>487</v>
       </c>
@@ -7677,8 +10833,14 @@
       <c r="G122">
         <v>129.0628658418307</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>73.536351681489265</v>
+      </c>
+      <c r="I122">
+        <v>101.29960876166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>494</v>
       </c>
@@ -7700,8 +10862,14 @@
       <c r="G123">
         <v>133.82383732818721</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>84.299860881922399</v>
+      </c>
+      <c r="I123">
+        <v>109.0618491050548</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>498</v>
       </c>
@@ -7723,8 +10891,14 @@
       <c r="G124">
         <v>136.71519741776561</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>87.797034443842932</v>
+      </c>
+      <c r="I124">
+        <v>112.2561159308042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>504</v>
       </c>
@@ -7746,8 +10920,14 @@
       <c r="G125">
         <v>138.74998020974769</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>89.422932098161226</v>
+      </c>
+      <c r="I125">
+        <v>114.0864561539545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>507</v>
       </c>
@@ -7769,8 +10949,14 @@
       <c r="G126">
         <v>141.80757003805579</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>94.932794294265449</v>
+      </c>
+      <c r="I126">
+        <v>118.3701821661606</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>522</v>
       </c>
@@ -7792,8 +10978,14 @@
       <c r="G127">
         <v>142.74927512750301</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>92.268208502962267</v>
+      </c>
+      <c r="I127">
+        <v>117.5087418152326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>529</v>
       </c>
@@ -7815,8 +11007,14 @@
       <c r="G128">
         <v>145.6844322488069</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>97.317614383639665</v>
+      </c>
+      <c r="I128">
+        <v>121.5010233162233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>536</v>
       </c>
@@ -7838,8 +11036,14 @@
       <c r="G129">
         <v>147.7033951121781</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>101.41928425805401</v>
+      </c>
+      <c r="I129">
+        <v>124.561339685116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>554</v>
       </c>
@@ -7861,8 +11065,14 @@
       <c r="G130">
         <v>152.37496768444649</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>110.1397888387507</v>
+      </c>
+      <c r="I130">
+        <v>131.2573782615986</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>563</v>
       </c>
@@ -7884,8 +11094,14 @@
       <c r="G131">
         <v>154.4284907627472</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>114.6170448705456</v>
+      </c>
+      <c r="I131">
+        <v>134.52276781664639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>574</v>
       </c>
@@ -7907,8 +11123,14 @@
       <c r="G132">
         <v>156.5250456882498</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>118.39430664768889</v>
+      </c>
+      <c r="I132">
+        <v>137.45967616796929</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>590</v>
       </c>
@@ -7930,8 +11152,14 @@
       <c r="G133">
         <v>157.5328937513795</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>116.19231440831859</v>
+      </c>
+      <c r="I133">
+        <v>136.86260407984901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>620</v>
       </c>
@@ -7953,8 +11181,14 @@
       <c r="G134">
         <v>154.5118965870403</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>99.238026439368582</v>
+      </c>
+      <c r="I134">
+        <v>126.8749615132044</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>658</v>
       </c>
@@ -7976,8 +11210,14 @@
       <c r="G135">
         <v>153.1497399865288</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>85.709147543909978</v>
+      </c>
+      <c r="I135">
+        <v>119.4294437652194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>683</v>
       </c>
@@ -7999,8 +11239,14 @@
       <c r="G136">
         <v>150.58143278653219</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>69.941989805484994</v>
+      </c>
+      <c r="I136">
+        <v>110.2617112960086</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>707</v>
       </c>
@@ -8022,8 +11268,14 @@
       <c r="G137">
         <v>147.98028973480649</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>54.290749394728408</v>
+      </c>
+      <c r="I137">
+        <v>101.13551956476741</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>731</v>
       </c>
@@ -8045,8 +11297,14 @@
       <c r="G138">
         <v>144.66347833358671</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>36.915494208115348</v>
+      </c>
+      <c r="I138">
+        <v>90.789486270851</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>762</v>
       </c>
@@ -8068,8 +11326,14 @@
       <c r="G139">
         <v>150.72598026330309</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>57.169799070506528</v>
+      </c>
+      <c r="I139">
+        <v>103.9478896669048</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>768</v>
       </c>
@@ -8091,8 +11355,14 @@
       <c r="G140">
         <v>152.79464637025009</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>60.327213065696398</v>
+      </c>
+      <c r="I140">
+        <v>106.5609297179732</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>766</v>
       </c>
@@ -8114,8 +11384,14 @@
       <c r="G141">
         <v>152.54160725657431</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>55.88963495128489</v>
+      </c>
+      <c r="I141">
+        <v>104.21562110392961</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>760</v>
       </c>
@@ -8137,8 +11413,14 @@
       <c r="G142">
         <v>151.0867088503559</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>44.888783412151717</v>
+      </c>
+      <c r="I142">
+        <v>97.9877461312538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>766</v>
       </c>
@@ -8160,8 +11442,14 @@
       <c r="G143">
         <v>152.47792846534119</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>46.096435921660436</v>
+      </c>
+      <c r="I143">
+        <v>99.287182193500826</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>758</v>
       </c>
@@ -8183,8 +11471,14 @@
       <c r="G144">
         <v>153.30612535034371</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>46.2762887663703</v>
+      </c>
+      <c r="I144">
+        <v>99.791207058356974</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>757</v>
       </c>
@@ -8206,8 +11500,14 @@
       <c r="G145">
         <v>155.84672192537889</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>52.862757102156529</v>
+      </c>
+      <c r="I145">
+        <v>104.3547395137677</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>746</v>
       </c>
@@ -8229,8 +11529,14 @@
       <c r="G146">
         <v>161.7396292387397</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>73.001591593164861</v>
+      </c>
+      <c r="I146">
+        <v>117.3706104159523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>755</v>
       </c>
@@ -8252,8 +11558,14 @@
       <c r="G147">
         <v>162.32367245909899</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>70.147845234302352</v>
+      </c>
+      <c r="I147">
+        <v>116.2357588467007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>763</v>
       </c>
@@ -8275,8 +11587,14 @@
       <c r="G148">
         <v>161.7412062183289</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>66.80655523503475</v>
+      </c>
+      <c r="I148">
+        <v>114.2738807266818</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>767</v>
       </c>
@@ -8298,8 +11616,14 @@
       <c r="G149">
         <v>163.21316264285099</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>68.799048983421727</v>
+      </c>
+      <c r="I149">
+        <v>116.0061058131363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>767</v>
       </c>
@@ -8321,8 +11645,14 @@
       <c r="G150">
         <v>164.35857710801699</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>69.085402599713234</v>
+      </c>
+      <c r="I150">
+        <v>116.7219898538651</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>767</v>
       </c>
@@ -8344,8 +11674,14 @@
       <c r="G151">
         <v>165.80355335424909</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>71.250135075973688</v>
+      </c>
+      <c r="I151">
+        <v>118.5268442151114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>770</v>
       </c>
@@ -8367,8 +11703,14 @@
       <c r="G152">
         <v>167.0266076812174</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>74.527216871797663</v>
+      </c>
+      <c r="I152">
+        <v>120.7769122765075</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>769</v>
       </c>
@@ -8390,8 +11732,14 @@
       <c r="G153">
         <v>168.12095020720469</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>78.513725829752843</v>
+      </c>
+      <c r="I153">
+        <v>123.31733801847879</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>771</v>
       </c>
@@ -8413,8 +11761,14 @@
       <c r="G154">
         <v>168.61162385624871</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>78.712079756310075</v>
+      </c>
+      <c r="I154">
+        <v>123.6618518062794</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>772</v>
       </c>
@@ -8436,8 +11790,14 @@
       <c r="G155">
         <v>170.2161003213931</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>84.491660242334845</v>
+      </c>
+      <c r="I155">
+        <v>127.35388028186399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>773</v>
       </c>
@@ -8459,8 +11819,14 @@
       <c r="G156">
         <v>171.5215709966489</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>87.300976595317763</v>
+      </c>
+      <c r="I156">
+        <v>129.41127379598331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>779</v>
       </c>
@@ -8482,8 +11848,14 @@
       <c r="G157">
         <v>171.56475401073891</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>85.497645275154241</v>
+      </c>
+      <c r="I157">
+        <v>128.53119964294649</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>786</v>
       </c>
@@ -8505,8 +11877,14 @@
       <c r="G158">
         <v>171.61588073117869</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>85.062488988028832</v>
+      </c>
+      <c r="I158">
+        <v>128.33918485960371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>786</v>
       </c>
@@ -8528,8 +11906,14 @@
       <c r="G159">
         <v>171.910042776832</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>86.6574699194895</v>
+      </c>
+      <c r="I159">
+        <v>129.28375634816081</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>783</v>
       </c>
@@ -8551,8 +11935,14 @@
       <c r="G160">
         <v>172.860759101817</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>90.56725161580944</v>
+      </c>
+      <c r="I160">
+        <v>131.71400535881321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>782</v>
       </c>
@@ -8574,8 +11964,14 @@
       <c r="G161">
         <v>173.8030597614364</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>92.75285392591914</v>
+      </c>
+      <c r="I161">
+        <v>133.2779568436778</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>778</v>
       </c>
@@ -8597,8 +11993,14 @@
       <c r="G162">
         <v>174.31397307836201</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>97.190266416206669</v>
+      </c>
+      <c r="I162">
+        <v>135.7521197472843</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>777</v>
       </c>
@@ -8620,8 +12022,14 @@
       <c r="G163">
         <v>175.0410246055275</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>98.430972646077507</v>
+      </c>
+      <c r="I163">
+        <v>136.73599862580249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>775</v>
       </c>
@@ -8643,8 +12051,14 @@
       <c r="G164">
         <v>174.785332417913</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>99.936198043375128</v>
+      </c>
+      <c r="I164">
+        <v>137.36076523064409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>769</v>
       </c>
@@ -8666,8 +12080,14 @@
       <c r="G165">
         <v>175.5997826403129</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>103.930516989503</v>
+      </c>
+      <c r="I165">
+        <v>139.76514981490789</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>771</v>
       </c>
@@ -8689,8 +12109,14 @@
       <c r="G166">
         <v>175.1654183239385</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>101.8107732060446</v>
+      </c>
+      <c r="I166">
+        <v>138.48809576499161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>770</v>
       </c>
@@ -8712,8 +12138,14 @@
       <c r="G167">
         <v>174.64604670416031</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>100.99235363592641</v>
+      </c>
+      <c r="I167">
+        <v>137.8192001700433</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>773</v>
       </c>
@@ -8735,8 +12167,14 @@
       <c r="G168">
         <v>172.50137618288571</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>94.952281689402781</v>
+      </c>
+      <c r="I168">
+        <v>133.72682893614419</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>773</v>
       </c>
@@ -8758,8 +12196,14 @@
       <c r="G169">
         <v>170.69332681464391</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>92.505450049553687</v>
+      </c>
+      <c r="I169">
+        <v>131.59938843209869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>772</v>
       </c>
@@ -8781,8 +12225,14 @@
       <c r="G170">
         <v>170.027452183599</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>91.178658850460295</v>
+      </c>
+      <c r="I170">
+        <v>130.60305551702959</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>776</v>
       </c>
@@ -8804,8 +12254,14 @@
       <c r="G171">
         <v>167.53148692913311</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>85.228430014126417</v>
+      </c>
+      <c r="I171">
+        <v>126.37995847162981</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>767</v>
       </c>
@@ -8827,8 +12283,14 @@
       <c r="G172">
         <v>166.93084601675929</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>85.67313540596848</v>
+      </c>
+      <c r="I172">
+        <v>126.3019907113639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>754</v>
       </c>
@@ -8850,8 +12312,14 @@
       <c r="G173">
         <v>168.17139430705149</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>93.53873262611225</v>
+      </c>
+      <c r="I173">
+        <v>130.85506346658181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>730</v>
       </c>
@@ -8873,8 +12341,14 @@
       <c r="G174">
         <v>170.43729251199991</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>107.1039894507193</v>
+      </c>
+      <c r="I174">
+        <v>138.77064098135961</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>730</v>
       </c>
@@ -8896,8 +12370,14 @@
       <c r="G175">
         <v>169.83098504645159</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>106.95241258433219</v>
+      </c>
+      <c r="I175">
+        <v>138.39169881539189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>714</v>
       </c>
@@ -8919,8 +12399,14 @@
       <c r="G176">
         <v>170.84240394935989</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>115.5723211655595</v>
+      </c>
+      <c r="I176">
+        <v>143.2073625574597</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>711</v>
       </c>
@@ -8942,8 +12428,14 @@
       <c r="G177">
         <v>170.17029716811999</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>117.11895721901109</v>
+      </c>
+      <c r="I177">
+        <v>143.64462719356561</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>707</v>
       </c>
@@ -8965,8 +12457,14 @@
       <c r="G178">
         <v>169.65916928405119</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>118.52028091733619</v>
+      </c>
+      <c r="I178">
+        <v>144.0897251006937</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>696</v>
       </c>
@@ -8988,8 +12486,14 @@
       <c r="G179">
         <v>169.53511561786539</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>123.3245046245264</v>
+      </c>
+      <c r="I179">
+        <v>146.42981012119591</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>689</v>
       </c>
@@ -9011,8 +12515,14 @@
       <c r="G180">
         <v>167.88821163997591</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>121.91934975896579</v>
+      </c>
+      <c r="I180">
+        <v>144.90378069947079</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>688</v>
       </c>
@@ -9034,8 +12544,14 @@
       <c r="G181">
         <v>164.7144367672532</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>117.6080393923304</v>
+      </c>
+      <c r="I181">
+        <v>141.16123807979179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>689</v>
       </c>
@@ -9057,8 +12573,14 @@
       <c r="G182">
         <v>162.31123012134449</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>112.4641555515546</v>
+      </c>
+      <c r="I182">
+        <v>137.38769283644959</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>687</v>
       </c>
@@ -9080,8 +12602,14 @@
       <c r="G183">
         <v>159.65767373474469</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>105.3714595918031</v>
+      </c>
+      <c r="I183">
+        <v>132.51456666327391</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>672</v>
       </c>
@@ -9103,8 +12631,14 @@
       <c r="G184">
         <v>157.66705904527919</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>106.4026726665813</v>
+      </c>
+      <c r="I184">
+        <v>132.03486585593029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>657</v>
       </c>
@@ -9126,8 +12660,14 @@
       <c r="G185">
         <v>156.42645839683129</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>107.8283124348133</v>
+      </c>
+      <c r="I185">
+        <v>132.12738541582229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>635</v>
       </c>
@@ -9149,8 +12689,14 @@
       <c r="G186">
         <v>154.65800805778039</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>109.2915834343769</v>
+      </c>
+      <c r="I186">
+        <v>131.97479574607871</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>624</v>
       </c>
@@ -9172,8 +12718,14 @@
       <c r="G187">
         <v>153.9464247309854</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>110.89491497040569</v>
+      </c>
+      <c r="I187">
+        <v>132.42066985069559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>610</v>
       </c>
@@ -9195,8 +12747,14 @@
       <c r="G188">
         <v>153.71888717024589</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>116.2585661335285</v>
+      </c>
+      <c r="I188">
+        <v>134.98872665188711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>602</v>
       </c>
@@ -9218,8 +12776,14 @@
       <c r="G189">
         <v>150.2913015067486</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>114.8161364467294</v>
+      </c>
+      <c r="I189">
+        <v>132.55371897673899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>592</v>
       </c>
@@ -9241,8 +12805,14 @@
       <c r="G190">
         <v>150.1627540237871</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>117.73861886148831</v>
+      </c>
+      <c r="I190">
+        <v>133.9506864426377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>571</v>
       </c>
@@ -9264,8 +12834,14 @@
       <c r="G191">
         <v>148.57649973187009</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>119.98887688345989</v>
+      </c>
+      <c r="I191">
+        <v>134.28268830766501</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>561</v>
       </c>
@@ -9287,8 +12863,14 @@
       <c r="G192">
         <v>145.01252268467249</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>117.09423698447431</v>
+      </c>
+      <c r="I192">
+        <v>131.05337983457341</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>541</v>
       </c>
@@ -9310,8 +12892,14 @@
       <c r="G193">
         <v>143.23463505136201</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>114.944244368993</v>
+      </c>
+      <c r="I193">
+        <v>129.08943971017749</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>532</v>
       </c>
@@ -9333,8 +12921,14 @@
       <c r="G194">
         <v>140.4997736996427</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>111.7184911243703</v>
+      </c>
+      <c r="I194">
+        <v>126.1091324120065</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>525</v>
       </c>
@@ -9356,8 +12950,14 @@
       <c r="G195">
         <v>136.93447133484941</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>107.3919635304329</v>
+      </c>
+      <c r="I195">
+        <v>122.1632174326411</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>518</v>
       </c>
@@ -9379,8 +12979,14 @@
       <c r="G196">
         <v>134.2145430788874</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>102.5598307318199</v>
+      </c>
+      <c r="I196">
+        <v>118.3871869053536</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>501</v>
       </c>
@@ -9402,8 +13008,14 @@
       <c r="G197">
         <v>128.6191935341858</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>91.134492965536296</v>
+      </c>
+      <c r="I197">
+        <v>109.8768432498611</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>492</v>
       </c>
@@ -9425,8 +13037,14 @@
       <c r="G198">
         <v>124.3415697605585</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>84.050063349856032</v>
+      </c>
+      <c r="I198">
+        <v>104.1958165552073</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>485</v>
       </c>
@@ -9448,8 +13066,14 @@
       <c r="G199">
         <v>120.31492698779191</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>77.889254112883691</v>
+      </c>
+      <c r="I199">
+        <v>99.102090550337778</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>470</v>
       </c>
@@ -9471,8 +13095,14 @@
       <c r="G200">
         <v>118.6080215397097</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>80.01455462918068</v>
+      </c>
+      <c r="I200">
+        <v>99.311288084445209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>443</v>
       </c>
@@ -9494,8 +13124,14 @@
       <c r="G201">
         <v>115.7552153523681</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>79.944436908000057</v>
+      </c>
+      <c r="I201">
+        <v>97.849826130184056</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>425</v>
       </c>
@@ -9517,8 +13153,14 @@
       <c r="G202">
         <v>114.767435643933</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>84.688526786417754</v>
+      </c>
+      <c r="I202">
+        <v>99.727981215175362</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>410</v>
       </c>
@@ -9540,8 +13182,14 @@
       <c r="G203">
         <v>111.8402753633618</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <v>85.536607366577599</v>
+      </c>
+      <c r="I203">
+        <v>98.688441364969719</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>398</v>
       </c>
@@ -9563,8 +13211,14 @@
       <c r="G204">
         <v>108.78984070534641</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>82.963169752707316</v>
+      </c>
+      <c r="I204">
+        <v>95.876505229026861</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>370</v>
       </c>
@@ -9586,8 +13240,14 @@
       <c r="G205">
         <v>104.97165784764771</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>77.522610978465124</v>
+      </c>
+      <c r="I205">
+        <v>91.247134413056415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>356</v>
       </c>
@@ -9609,8 +13269,14 @@
       <c r="G206">
         <v>102.0183189900922</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <v>76.303026188036142</v>
+      </c>
+      <c r="I206">
+        <v>89.160672589064177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>341</v>
       </c>
@@ -9632,8 +13298,14 @@
       <c r="G207">
         <v>98.0878605890872</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <v>73.082685879279893</v>
+      </c>
+      <c r="I207">
+        <v>85.585273234183546</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>334</v>
       </c>
@@ -9655,8 +13327,14 @@
       <c r="G208">
         <v>92.363134515783244</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>60.243499843701933</v>
+      </c>
+      <c r="I208">
+        <v>76.303317179742578</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>314</v>
       </c>
@@ -9678,8 +13356,14 @@
       <c r="G209">
         <v>87.062296977088153</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <v>51.384034711227088</v>
+      </c>
+      <c r="I209">
+        <v>69.22316584415762</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>287</v>
       </c>
@@ -9701,8 +13385,14 @@
       <c r="G210">
         <v>78.069055842279866</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>25.22019625171486</v>
+      </c>
+      <c r="I210">
+        <v>51.644626046997359</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>272</v>
       </c>
@@ -9724,8 +13414,14 @@
       <c r="G211">
         <v>74.023670899418136</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>21.501809147908691</v>
+      </c>
+      <c r="I211">
+        <v>47.762740023663412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>256</v>
       </c>
@@ -9747,8 +13443,14 @@
       <c r="G212">
         <v>72.391672521336602</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>27.79275818125878</v>
+      </c>
+      <c r="I212">
+        <v>50.092215351297682</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>239</v>
       </c>
@@ -9770,8 +13472,14 @@
       <c r="G213">
         <v>71.120165789584334</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <v>32.842538894500109</v>
+      </c>
+      <c r="I213">
+        <v>51.981352342042207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>221</v>
       </c>
@@ -9793,8 +13501,14 @@
       <c r="G214">
         <v>67.364988319439732</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>35.240313320833458</v>
+      </c>
+      <c r="I214">
+        <v>51.302650820136591</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>187</v>
       </c>
@@ -9816,8 +13530,14 @@
       <c r="G215">
         <v>68.428204611224373</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>48.607411037560162</v>
+      </c>
+      <c r="I215">
+        <v>58.517807824392257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>168</v>
       </c>
@@ -9839,8 +13559,14 @@
       <c r="G216">
         <v>65.821518090561355</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>49.176594260046002</v>
+      </c>
+      <c r="I216">
+        <v>57.499056175303679</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>158</v>
       </c>
@@ -9862,8 +13588,14 @@
       <c r="G217">
         <v>63.395410258535691</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <v>51.333774444105849</v>
+      </c>
+      <c r="I217">
+        <v>57.364592351320773</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>146</v>
       </c>
@@ -9885,8 +13617,14 @@
       <c r="G218">
         <v>60.044919889104229</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>51.493429389402088</v>
+      </c>
+      <c r="I218">
+        <v>55.769174639253151</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>116</v>
       </c>
@@ -9908,8 +13646,14 @@
       <c r="G219">
         <v>56.000678927192403</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <v>50.232005769998693</v>
+      </c>
+      <c r="I219">
+        <v>53.116342348595538</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>101</v>
       </c>
@@ -9931,8 +13675,14 @@
       <c r="G220">
         <v>54.835975434380643</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <v>52.259008125287117</v>
+      </c>
+      <c r="I220">
+        <v>53.547491779833877</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>88</v>
       </c>
@@ -9954,8 +13704,14 @@
       <c r="G221">
         <v>51.122204909731323</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <v>51.98192762004917</v>
+      </c>
+      <c r="I221">
+        <v>51.552066264890243</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>66</v>
       </c>
@@ -9977,8 +13733,14 @@
       <c r="G222">
         <v>46.496401137628993</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <v>42.855220056270987</v>
+      </c>
+      <c r="I222">
+        <v>44.675810596949987</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>56</v>
       </c>
@@ -10000,8 +13762,14 @@
       <c r="G223">
         <v>40.732252143838153</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <v>33.278464652086022</v>
+      </c>
+      <c r="I223">
+        <v>37.005358397962077</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>41</v>
       </c>
@@ -10023,8 +13791,14 @@
       <c r="G224">
         <v>33.781225300058892</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <v>22.739833977803819</v>
+      </c>
+      <c r="I224">
+        <v>28.260529638931359</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>19</v>
       </c>
@@ -10046,8 +13820,14 @@
       <c r="G225">
         <v>28.597808376051109</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>10.56146330769427</v>
+      </c>
+      <c r="I225">
+        <v>19.57963584187269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5</v>
       </c>
@@ -10069,8 +13849,14 @@
       <c r="G226">
         <v>27.181218890826589</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <v>16.36257651574795</v>
+      </c>
+      <c r="I226">
+        <v>21.771897703287269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>-3</v>
       </c>
@@ -10092,8 +13878,14 @@
       <c r="G227">
         <v>26.99650195365664</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <v>29.83970025030376</v>
+      </c>
+      <c r="I227">
+        <v>28.418101101980199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-16</v>
       </c>
@@ -10115,8 +13907,14 @@
       <c r="G228">
         <v>27.350028745610921</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <v>41.740136194172081</v>
+      </c>
+      <c r="I228">
+        <v>34.545082469891497</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>-41</v>
       </c>
@@ -10138,8 +13936,14 @@
       <c r="G229">
         <v>28.889374747135712</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <v>64.630743246813225</v>
+      </c>
+      <c r="I229">
+        <v>46.760058996974458</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>-57</v>
       </c>
@@ -10161,8 +13965,14 @@
       <c r="G230">
         <v>26.925300713755409</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <v>67.691912299901119</v>
+      </c>
+      <c r="I230">
+        <v>47.308606506828262</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>-72</v>
       </c>
@@ -10184,8 +13994,14 @@
       <c r="G231">
         <v>24.466195608575031</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <v>68.872187339242288</v>
+      </c>
+      <c r="I231">
+        <v>46.669191473908647</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>-79</v>
       </c>
@@ -10207,8 +14023,14 @@
       <c r="G232">
         <v>21.742416690125289</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <v>70.861420829338073</v>
+      </c>
+      <c r="I232">
+        <v>46.301918759731677</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>-99</v>
       </c>
@@ -10230,8 +14052,14 @@
       <c r="G233">
         <v>17.731173926879439</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <v>68.61530682801839</v>
+      </c>
+      <c r="I233">
+        <v>43.173240377448913</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>-108</v>
       </c>
@@ -10253,8 +14081,14 @@
       <c r="G234">
         <v>19.674287885219609</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <v>69.444420379868177</v>
+      </c>
+      <c r="I234">
+        <v>44.559354132543888</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>-120</v>
       </c>
@@ -10276,8 +14110,14 @@
       <c r="G235">
         <v>23.236435287399281</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>69.939952203767163</v>
+      </c>
+      <c r="I235">
+        <v>46.588193745583233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>-140</v>
       </c>
@@ -10299,8 +14139,14 @@
       <c r="G236">
         <v>25.27116668462056</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <v>67.026987655897727</v>
+      </c>
+      <c r="I236">
+        <v>46.149077170259147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>-151</v>
       </c>
@@ -10322,8 +14168,14 @@
       <c r="G237">
         <v>27.60498663352055</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <v>63.150841253093162</v>
+      </c>
+      <c r="I237">
+        <v>45.377913943306851</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>-163</v>
       </c>
@@ -10345,8 +14197,14 @@
       <c r="G238">
         <v>31.498904114443231</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <v>64.806141760069636</v>
+      </c>
+      <c r="I238">
+        <v>48.152522937256443</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>-175</v>
       </c>
@@ -10368,8 +14226,14 @@
       <c r="G239">
         <v>34.682650622200413</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <v>64.6673305309846</v>
+      </c>
+      <c r="I239">
+        <v>49.674990576592513</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>-205</v>
       </c>
@@ -10391,8 +14255,14 @@
       <c r="G240">
         <v>37.598524992045832</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <v>65.173038196434348</v>
+      </c>
+      <c r="I240">
+        <v>51.385781594240093</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>-224</v>
       </c>
@@ -10414,8 +14284,14 @@
       <c r="G241">
         <v>41.346558433410152</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <v>68.855755924645749</v>
+      </c>
+      <c r="I241">
+        <v>55.10115717902795</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>-243</v>
       </c>
@@ -10437,8 +14313,14 @@
       <c r="G242">
         <v>44.50461370456533</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <v>69.102084119299931</v>
+      </c>
+      <c r="I242">
+        <v>56.80334891193263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>-286</v>
       </c>
@@ -10460,8 +14342,14 @@
       <c r="G243">
         <v>46.571271040854747</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <v>64.886359232558561</v>
+      </c>
+      <c r="I243">
+        <v>55.728815136706658</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>-306</v>
       </c>
@@ -10483,8 +14371,14 @@
       <c r="G244">
         <v>49.372311024287072</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <v>64.71204167754405</v>
+      </c>
+      <c r="I244">
+        <v>57.042176350915547</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>-326</v>
       </c>
@@ -10506,8 +14400,14 @@
       <c r="G245">
         <v>52.937173638139207</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <v>66.613880271935216</v>
+      </c>
+      <c r="I245">
+        <v>59.775526955037208</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>-349</v>
       </c>
@@ -10529,8 +14429,14 @@
       <c r="G246">
         <v>56.100580124041713</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <v>65.396622495607517</v>
+      </c>
+      <c r="I246">
+        <v>60.748601309824608</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>-372</v>
       </c>
@@ -10552,8 +14458,14 @@
       <c r="G247">
         <v>57.597069602842822</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <v>64.069122040681222</v>
+      </c>
+      <c r="I247">
+        <v>60.833095821762022</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>-418</v>
       </c>
@@ -10575,8 +14487,14 @@
       <c r="G248">
         <v>59.275686800514883</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <v>56.932940415006797</v>
+      </c>
+      <c r="I248">
+        <v>58.104313607760837</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>-437</v>
       </c>
@@ -10598,8 +14516,14 @@
       <c r="G249">
         <v>62.64492182747729</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <v>55.027622329586897</v>
+      </c>
+      <c r="I249">
+        <v>58.83627207853209</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>-470</v>
       </c>
@@ -10621,8 +14545,14 @@
       <c r="G250">
         <v>63.859600416998937</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250">
+        <v>52.393600232961447</v>
+      </c>
+      <c r="I250">
+        <v>58.126600324980188</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>-470</v>
       </c>
@@ -10644,8 +14574,14 @@
       <c r="G251">
         <v>66.844415177411634</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <v>53.139803923064619</v>
+      </c>
+      <c r="I251">
+        <v>59.992109550238133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>-501</v>
       </c>
@@ -10667,8 +14603,14 @@
       <c r="G252">
         <v>69.920875625833247</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <v>52.037611145360508</v>
+      </c>
+      <c r="I252">
+        <v>60.979243385596867</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>-514</v>
       </c>
@@ -10690,8 +14632,14 @@
       <c r="G253">
         <v>72.38340895766099</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <v>51.783027769547203</v>
+      </c>
+      <c r="I253">
+        <v>62.08321836360409</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>-526</v>
       </c>
@@ -10713,8 +14661,14 @@
       <c r="G254">
         <v>74.597928332812444</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <v>50.92808766890812</v>
+      </c>
+      <c r="I254">
+        <v>62.763008000860282</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>-534</v>
       </c>
@@ -10736,8 +14690,14 @@
       <c r="G255">
         <v>78.180512252973898</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <v>51.506784727736118</v>
+      </c>
+      <c r="I255">
+        <v>64.843648490355008</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-545</v>
       </c>
@@ -10759,8 +14719,14 @@
       <c r="G256">
         <v>81.173080877567259</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <v>53.006978004072828</v>
+      </c>
+      <c r="I256">
+        <v>67.090029440820047</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-569</v>
       </c>
@@ -10782,8 +14748,14 @@
       <c r="G257">
         <v>83.638420350450389</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <v>54.10340743025413</v>
+      </c>
+      <c r="I257">
+        <v>68.870913890352256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>-581</v>
       </c>
@@ -10805,8 +14777,14 @@
       <c r="G258">
         <v>87.013218978817264</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <v>53.636235597897311</v>
+      </c>
+      <c r="I258">
+        <v>70.32472728835728</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>-607</v>
       </c>
@@ -10828,8 +14806,14 @@
       <c r="G259">
         <v>88.30864855428905</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <v>52.239289767300043</v>
+      </c>
+      <c r="I259">
+        <v>70.273969160794536</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-621</v>
       </c>
@@ -10851,8 +14835,14 @@
       <c r="G260">
         <v>91.421749905203441</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <v>52.539100718623253</v>
+      </c>
+      <c r="I260">
+        <v>71.980425311913336</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>-638</v>
       </c>
@@ -10874,8 +14864,14 @@
       <c r="G261">
         <v>93.092903506906168</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <v>50.503163892972218</v>
+      </c>
+      <c r="I261">
+        <v>71.798033699939197</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-651</v>
       </c>
@@ -10897,8 +14893,14 @@
       <c r="G262">
         <v>95.793429896128472</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262">
+        <v>51.324233188107122</v>
+      </c>
+      <c r="I262">
+        <v>73.558831542117787</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-669</v>
       </c>
@@ -10920,8 +14922,14 @@
       <c r="G263">
         <v>98.784908205687614</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <v>52.557995824186541</v>
+      </c>
+      <c r="I263">
+        <v>75.671452014937074</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-684</v>
       </c>
@@ -10943,8 +14951,14 @@
       <c r="G264">
         <v>101.16239259327359</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>53.278955236654532</v>
+      </c>
+      <c r="I264">
+        <v>77.220673914964038</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-719</v>
       </c>
@@ -10966,8 +14980,14 @@
       <c r="G265">
         <v>103.314452052489</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>49.289169830579027</v>
+      </c>
+      <c r="I265">
+        <v>76.301810941534029</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-720</v>
       </c>
@@ -10989,8 +15009,14 @@
       <c r="G266">
         <v>109.52168363648251</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266">
+        <v>64.280278923438487</v>
+      </c>
+      <c r="I266">
+        <v>86.90098127996049</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>-729</v>
       </c>
@@ -11012,8 +15038,14 @@
       <c r="G267">
         <v>116.99132702802029</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267">
+        <v>85.133062788644935</v>
+      </c>
+      <c r="I267">
+        <v>101.0621949083326</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>-741</v>
       </c>
@@ -11035,8 +15067,14 @@
       <c r="G268">
         <v>119.0445204170998</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268">
+        <v>85.767929489168097</v>
+      </c>
+      <c r="I268">
+        <v>102.406224953134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>-766</v>
       </c>
@@ -11058,8 +15096,14 @@
       <c r="G269">
         <v>122.0536546848341</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269">
+        <v>86.791387208158994</v>
+      </c>
+      <c r="I269">
+        <v>104.4225209464965</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>-778</v>
       </c>
@@ -11081,8 +15125,14 @@
       <c r="G270">
         <v>123.77567599260431</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270">
+        <v>85.621511765362456</v>
+      </c>
+      <c r="I270">
+        <v>104.6985938789834</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-788</v>
       </c>
@@ -11104,8 +15154,14 @@
       <c r="G271">
         <v>126.2909931922575</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <v>86.606382205431103</v>
+      </c>
+      <c r="I271">
+        <v>106.4486876988443</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-795</v>
       </c>
@@ -11127,8 +15183,14 @@
       <c r="G272">
         <v>129.60824294840779</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272">
+        <v>89.202008443393566</v>
+      </c>
+      <c r="I272">
+        <v>109.40512569590069</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-803</v>
       </c>
@@ -11150,8 +15212,14 @@
       <c r="G273">
         <v>131.5394482029435</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273">
+        <v>89.743236911976823</v>
+      </c>
+      <c r="I273">
+        <v>110.64134255746021</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-827</v>
       </c>
@@ -11173,8 +15241,14 @@
       <c r="G274">
         <v>129.98709889023479</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274">
+        <v>76.522049608408494</v>
+      </c>
+      <c r="I274">
+        <v>103.25457424932161</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-851</v>
       </c>
@@ -11196,8 +15270,14 @@
       <c r="G275">
         <v>129.0867645510221</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275">
+        <v>63.753685100328497</v>
+      </c>
+      <c r="I275">
+        <v>96.420224825675291</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-877</v>
       </c>
@@ -11219,8 +15299,14 @@
       <c r="G276">
         <v>129.99578362644789</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276">
+        <v>58.543405144611867</v>
+      </c>
+      <c r="I276">
+        <v>94.269594385529899</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-888</v>
       </c>
@@ -11242,8 +15328,14 @@
       <c r="G277">
         <v>131.72128234055299</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277">
+        <v>58.09499445926572</v>
+      </c>
+      <c r="I277">
+        <v>94.908138399909376</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-895</v>
       </c>
@@ -11265,8 +15357,14 @@
       <c r="G278">
         <v>134.53192796285569</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278">
+        <v>62.427350773097857</v>
+      </c>
+      <c r="I278">
+        <v>98.479639367976802</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>-908</v>
       </c>
@@ -11288,8 +15386,14 @@
       <c r="G279">
         <v>136.99433353936971</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279">
+        <v>62.910763774640643</v>
+      </c>
+      <c r="I279">
+        <v>99.952548657005195</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>-924</v>
       </c>
@@ -11311,8 +15415,14 @@
       <c r="G280">
         <v>138.12468616865061</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280">
+        <v>60.478126178772172</v>
+      </c>
+      <c r="I280">
+        <v>99.301406173711371</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-955</v>
       </c>
@@ -11334,8 +15444,14 @@
       <c r="G281">
         <v>138.48697832191249</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <v>54.255355362025703</v>
+      </c>
+      <c r="I281">
+        <v>96.371166841969114</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-971</v>
       </c>
@@ -11357,8 +15473,14 @@
       <c r="G282">
         <v>138.9799924718551</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282">
+        <v>50.614134443100973</v>
+      </c>
+      <c r="I282">
+        <v>94.797063457478032</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>-989</v>
       </c>
@@ -11380,8 +15502,14 @@
       <c r="G283">
         <v>139.6019230451428</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283">
+        <v>44.987563587919936</v>
+      </c>
+      <c r="I283">
+        <v>92.294743316531367</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>-1002</v>
       </c>
@@ -11403,8 +15531,14 @@
       <c r="G284">
         <v>140.22761458530039</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284">
+        <v>42.242954867763189</v>
+      </c>
+      <c r="I284">
+        <v>91.235284726531802</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>-1038</v>
       </c>
@@ -11426,8 +15560,14 @@
       <c r="G285">
         <v>142.38524646655509</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285">
+        <v>41.599659823510137</v>
+      </c>
+      <c r="I285">
+        <v>91.992453145032641</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>-1063</v>
       </c>
@@ -11449,8 +15589,14 @@
       <c r="G286">
         <v>146.72231415707179</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286">
+        <v>54.446900410708217</v>
+      </c>
+      <c r="I286">
+        <v>100.58460728388999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>-1097</v>
       </c>
@@ -11472,8 +15618,14 @@
       <c r="G287">
         <v>151.817619766858</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287">
+        <v>70.1788772001577</v>
+      </c>
+      <c r="I287">
+        <v>110.99824848350779</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>-1111</v>
       </c>
@@ -11495,8 +15647,14 @@
       <c r="G288">
         <v>155.69404844548981</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <v>76.405654766048755</v>
+      </c>
+      <c r="I288">
+        <v>116.04985160576931</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>-1123</v>
       </c>
@@ -11518,8 +15676,14 @@
       <c r="G289">
         <v>157.8791690657641</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <v>80.489782532173791</v>
+      </c>
+      <c r="I289">
+        <v>119.1844757989689</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>-1133</v>
       </c>
@@ -11541,8 +15705,14 @@
       <c r="G290">
         <v>159.9081195925412</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290">
+        <v>83.685768983197931</v>
+      </c>
+      <c r="I290">
+        <v>121.79694428786959</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>-1146</v>
       </c>
@@ -11564,8 +15734,14 @@
       <c r="G291">
         <v>163.27916454803599</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291">
+        <v>90.073857438832732</v>
+      </c>
+      <c r="I291">
+        <v>126.67651099343441</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>-1174</v>
       </c>
@@ -11587,8 +15763,14 @@
       <c r="G292">
         <v>167.60930579330301</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <v>103.28205413444429</v>
+      </c>
+      <c r="I292">
+        <v>135.44567996387369</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>-1182</v>
       </c>
@@ -11610,8 +15792,14 @@
       <c r="G293">
         <v>169.4751605162985</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <v>105.6652074948466</v>
+      </c>
+      <c r="I293">
+        <v>137.57018400557249</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>-1192</v>
       </c>
@@ -11633,8 +15821,14 @@
       <c r="G294">
         <v>171.40290778590551</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294">
+        <v>109.06301550871071</v>
+      </c>
+      <c r="I294">
+        <v>140.23296164730809</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>-1205</v>
       </c>
@@ -11656,8 +15850,14 @@
       <c r="G295">
         <v>173.96555778479151</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295">
+        <v>115.0923418555778</v>
+      </c>
+      <c r="I295">
+        <v>144.52894982018461</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>-1206</v>
       </c>
@@ -11679,8 +15879,14 @@
       <c r="G296">
         <v>174.34222849308711</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296">
+        <v>111.4363992699312</v>
+      </c>
+      <c r="I296">
+        <v>142.88931388150911</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>-1208</v>
       </c>
@@ -11702,8 +15908,14 @@
       <c r="G297">
         <v>175.47775777603101</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297">
+        <v>112.064098434153</v>
+      </c>
+      <c r="I297">
+        <v>143.770928105092</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>-1197</v>
       </c>
@@ -11725,8 +15937,14 @@
       <c r="G298">
         <v>172.72570368189079</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298">
+        <v>98.965593672607113</v>
+      </c>
+      <c r="I298">
+        <v>135.84564867724899</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>-1186</v>
       </c>
@@ -11748,8 +15966,14 @@
       <c r="G299">
         <v>171.14500180308451</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299">
+        <v>87.268511108616224</v>
+      </c>
+      <c r="I299">
+        <v>129.20675645585041</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>-1178</v>
       </c>
@@ -11771,8 +15995,14 @@
       <c r="G300">
         <v>169.4683328282959</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300">
+        <v>78.11083914790234</v>
+      </c>
+      <c r="I300">
+        <v>123.78958598809911</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>-1168</v>
       </c>
@@ -11794,8 +16024,14 @@
       <c r="G301">
         <v>167.99575594786441</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301">
+        <v>68.003972797958852</v>
+      </c>
+      <c r="I301">
+        <v>117.9998643729116</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>-1151</v>
       </c>
@@ -11817,8 +16053,14 @@
       <c r="G302">
         <v>164.73927040134251</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302">
+        <v>52.937114938518931</v>
+      </c>
+      <c r="I302">
+        <v>108.83819266993071</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>-1134</v>
       </c>
@@ -11840,8 +16082,14 @@
       <c r="G303">
         <v>163.63618202206871</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <v>45.264190363338869</v>
+      </c>
+      <c r="I303">
+        <v>104.4501861927038</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>-1136</v>
       </c>
@@ -11863,8 +16111,14 @@
       <c r="G304">
         <v>164.00360719113209</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <v>45.487320432560693</v>
+      </c>
+      <c r="I304">
+        <v>104.74546381184641</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>-1136</v>
       </c>
@@ -11886,8 +16140,14 @@
       <c r="G305">
         <v>165.15292931201299</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305">
+        <v>47.841865735227429</v>
+      </c>
+      <c r="I305">
+        <v>106.49739752362019</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-1154</v>
       </c>
@@ -11909,8 +16169,14 @@
       <c r="G306">
         <v>165.66743588960571</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306">
+        <v>46.091664766261196</v>
+      </c>
+      <c r="I306">
+        <v>105.8795503279334</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>-1167</v>
       </c>
@@ -11932,8 +16198,14 @@
       <c r="G307">
         <v>168.54438786995041</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307">
+        <v>56.212377518061928</v>
+      </c>
+      <c r="I307">
+        <v>112.37838269400621</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-1175</v>
       </c>
@@ -11955,8 +16227,14 @@
       <c r="G308">
         <v>170.67008821314641</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308">
+        <v>62.331612744803763</v>
+      </c>
+      <c r="I308">
+        <v>116.5008504789751</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>-1187</v>
       </c>
@@ -11978,8 +16256,14 @@
       <c r="G309">
         <v>173.2908369980149</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309">
+        <v>71.376772281115976</v>
+      </c>
+      <c r="I309">
+        <v>122.3338046395654</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>-1195</v>
       </c>
@@ -12001,8 +16285,14 @@
       <c r="G310">
         <v>175.26947328726001</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310">
+        <v>77.74103329181699</v>
+      </c>
+      <c r="I310">
+        <v>126.5052532895385</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>-1199</v>
       </c>
@@ -12024,8 +16314,14 @@
       <c r="G311">
         <v>175.79338723103771</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311">
+        <v>80.698704290995565</v>
+      </c>
+      <c r="I311">
+        <v>128.2460457610166</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>-1203</v>
       </c>
@@ -12047,8 +16343,14 @@
       <c r="G312">
         <v>177.1753295203255</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312">
+        <v>84.172383171277446</v>
+      </c>
+      <c r="I312">
+        <v>130.67385634580151</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-1207</v>
       </c>
@@ -12070,8 +16372,14 @@
       <c r="G313">
         <v>177.72842689403711</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313">
+        <v>87.616590308507242</v>
+      </c>
+      <c r="I313">
+        <v>132.6725086012722</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>-1211</v>
       </c>
@@ -12093,8 +16401,14 @@
       <c r="G314">
         <v>178.85900568030519</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314">
+        <v>91.419880373066064</v>
+      </c>
+      <c r="I314">
+        <v>135.1394430266856</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>-1217</v>
       </c>
@@ -12116,8 +16430,14 @@
       <c r="G315">
         <v>180.8728061386177</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315">
+        <v>98.247232765779984</v>
+      </c>
+      <c r="I315">
+        <v>139.56001945219879</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>-1218</v>
       </c>
@@ -12139,8 +16459,14 @@
       <c r="G316">
         <v>181.9252394680577</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316">
+        <v>100.491286513267</v>
+      </c>
+      <c r="I316">
+        <v>141.20826299066229</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>-1221</v>
       </c>
@@ -12162,8 +16488,14 @@
       <c r="G317">
         <v>182.81601678298861</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317">
+        <v>104.5816989061402</v>
+      </c>
+      <c r="I317">
+        <v>143.6988578445644</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>-1222</v>
       </c>
@@ -12185,8 +16517,14 @@
       <c r="G318">
         <v>183.3117949652985</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318">
+        <v>108.95662859464279</v>
+      </c>
+      <c r="I318">
+        <v>146.13421177997071</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>-1220</v>
       </c>
@@ -12208,8 +16546,14 @@
       <c r="G319">
         <v>183.13228182292701</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319">
+        <v>109.31149651102341</v>
+      </c>
+      <c r="I319">
+        <v>146.22188916697519</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>-1211</v>
       </c>
@@ -12231,8 +16575,14 @@
       <c r="G320">
         <v>181.93044720804539</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320">
+        <v>105.3860782719358</v>
+      </c>
+      <c r="I320">
+        <v>143.65826273999059</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>-1208</v>
       </c>
@@ -12254,8 +16604,14 @@
       <c r="G321">
         <v>181.77773667338931</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321">
+        <v>105.01376412100799</v>
+      </c>
+      <c r="I321">
+        <v>143.39575039719861</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>-1200</v>
       </c>
@@ -12277,8 +16633,14 @@
       <c r="G322">
         <v>180.59135098945791</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322">
+        <v>100.2123149788469</v>
+      </c>
+      <c r="I322">
+        <v>140.40183298415241</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>-1185</v>
       </c>
@@ -12300,8 +16662,14 @@
       <c r="G323">
         <v>178.22316470515469</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323">
+        <v>91.742289117642486</v>
+      </c>
+      <c r="I323">
+        <v>134.9827269113986</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>-1177</v>
       </c>
@@ -12323,8 +16691,14 @@
       <c r="G324">
         <v>176.32178347751179</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324">
+        <v>87.001075566953745</v>
+      </c>
+      <c r="I324">
+        <v>131.66142952223279</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>-1161</v>
       </c>
@@ -12346,8 +16720,14 @@
       <c r="G325">
         <v>173.20930756349719</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325">
+        <v>77.358008905869923</v>
+      </c>
+      <c r="I325">
+        <v>125.2836582346836</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>-1156</v>
       </c>
@@ -12369,8 +16749,14 @@
       <c r="G326">
         <v>172.73094400776131</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326">
+        <v>76.161543186400479</v>
+      </c>
+      <c r="I326">
+        <v>124.44624359708089</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>-1156</v>
       </c>
@@ -12392,8 +16778,14 @@
       <c r="G327">
         <v>172.558188101193</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327">
+        <v>79.199659230465443</v>
+      </c>
+      <c r="I327">
+        <v>125.87892366582921</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>-1151</v>
       </c>
@@ -12415,8 +16807,14 @@
       <c r="G328">
         <v>172.3179245510172</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328">
+        <v>81.258117298364738</v>
+      </c>
+      <c r="I328">
+        <v>126.788020924691</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>-1146</v>
       </c>
@@ -12438,8 +16836,14 @@
       <c r="G329">
         <v>172.3437485007106</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329">
+        <v>81.686953165608529</v>
+      </c>
+      <c r="I329">
+        <v>127.0153508331596</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>-1138</v>
       </c>
@@ -12461,8 +16865,14 @@
       <c r="G330">
         <v>170.12574968127581</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330">
+        <v>76.180593612042372</v>
+      </c>
+      <c r="I330">
+        <v>123.1531716466591</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>-1128</v>
       </c>
@@ -12484,8 +16894,14 @@
       <c r="G331">
         <v>167.43383316079121</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331">
+        <v>69.659083450656283</v>
+      </c>
+      <c r="I331">
+        <v>118.5464583057237</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>-1102</v>
       </c>
@@ -12507,8 +16923,14 @@
       <c r="G332">
         <v>162.61003214452069</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332">
+        <v>54.796514424978348</v>
+      </c>
+      <c r="I332">
+        <v>108.7032732847495</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>-1103</v>
       </c>
@@ -12530,8 +16952,14 @@
       <c r="G333">
         <v>163.0437281787722</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333">
+        <v>59.405924872981821</v>
+      </c>
+      <c r="I333">
+        <v>111.22482652587701</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>-1085</v>
       </c>
@@ -12553,8 +16981,14 @@
       <c r="G334">
         <v>160.06095654943789</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334">
+        <v>51.274475534527888</v>
+      </c>
+      <c r="I334">
+        <v>105.6677160419829</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>-1074</v>
       </c>
@@ -12576,8 +17010,14 @@
       <c r="G335">
         <v>157.7041758598032</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335">
+        <v>46.675383680740843</v>
+      </c>
+      <c r="I335">
+        <v>102.189779770272</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>-1065</v>
       </c>
@@ -12599,8 +17039,14 @@
       <c r="G336">
         <v>155.462454834737</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336">
+        <v>43.95770246342677</v>
+      </c>
+      <c r="I336">
+        <v>99.710078649081879</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>-1055</v>
       </c>
@@ -12622,8 +17068,14 @@
       <c r="G337">
         <v>153.72763604606311</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337">
+        <v>38.939487254400689</v>
+      </c>
+      <c r="I337">
+        <v>96.3335616502319</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>-1046</v>
       </c>
@@ -12645,8 +17097,14 @@
       <c r="G338">
         <v>154.19943032776939</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338">
+        <v>46.69562193072511</v>
+      </c>
+      <c r="I338">
+        <v>100.44752612924729</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>-1046</v>
       </c>
@@ -12668,8 +17126,14 @@
       <c r="G339">
         <v>152.89706413031041</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339">
+        <v>46.370030381360358</v>
+      </c>
+      <c r="I339">
+        <v>99.633547255835367</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>-1036</v>
       </c>
@@ -12691,8 +17155,14 @@
       <c r="G340">
         <v>152.19019133116771</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340">
+        <v>46.675421035457752</v>
+      </c>
+      <c r="I340">
+        <v>99.432806183312721</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>-1027</v>
       </c>
@@ -12714,8 +17184,14 @@
       <c r="G341">
         <v>152.46523485025861</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341">
+        <v>54.715372761041003</v>
+      </c>
+      <c r="I341">
+        <v>103.5903038056498</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>-1016</v>
       </c>
@@ -12737,8 +17213,14 @@
       <c r="G342">
         <v>150.78750852600069</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342">
+        <v>55.112548394473563</v>
+      </c>
+      <c r="I342">
+        <v>102.95002846023711</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>-1006</v>
       </c>
@@ -12760,8 +17242,14 @@
       <c r="G343">
         <v>149.17463723571609</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343">
+        <v>54.88375988344788</v>
+      </c>
+      <c r="I343">
+        <v>102.029198559582</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>-983</v>
       </c>
@@ -12783,8 +17271,14 @@
       <c r="G344">
         <v>147.72152317193849</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344">
+        <v>53.382311771046723</v>
+      </c>
+      <c r="I344">
+        <v>100.5519174714926</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>-975</v>
       </c>
@@ -12806,8 +17300,14 @@
       <c r="G345">
         <v>146.76089471635021</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345">
+        <v>54.872575077503917</v>
+      </c>
+      <c r="I345">
+        <v>100.8167348969271</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>-953</v>
       </c>
@@ -12829,8 +17329,14 @@
       <c r="G346">
         <v>145.96181101873429</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346">
+        <v>57.559394224900011</v>
+      </c>
+      <c r="I346">
+        <v>101.7606026218172</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>-947</v>
       </c>
@@ -12852,8 +17358,14 @@
       <c r="G347">
         <v>143.97886099263451</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347">
+        <v>58.756078800969867</v>
+      </c>
+      <c r="I347">
+        <v>101.36746989680221</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>-931</v>
       </c>
@@ -12875,8 +17387,14 @@
       <c r="G348">
         <v>143.0824696883839</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348">
+        <v>62.924800966133759</v>
+      </c>
+      <c r="I348">
+        <v>103.00363532725881</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>-927</v>
       </c>
@@ -12898,8 +17416,14 @@
       <c r="G349">
         <v>142.14689732860111</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349">
+        <v>66.393705475304301</v>
+      </c>
+      <c r="I349">
+        <v>104.27030140195269</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>-922</v>
       </c>
@@ -12921,8 +17445,14 @@
       <c r="G350">
         <v>141.1545141019466</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350">
+        <v>68.380936302800961</v>
+      </c>
+      <c r="I350">
+        <v>104.7677252023738</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>-914</v>
       </c>
@@ -12944,8 +17474,14 @@
       <c r="G351">
         <v>139.7292778932291</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351">
+        <v>71.26001833682821</v>
+      </c>
+      <c r="I351">
+        <v>105.4946481150287</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>-909</v>
       </c>
@@ -12967,8 +17503,14 @@
       <c r="G352">
         <v>138.6674333243638</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352">
+        <v>74.998197074532115</v>
+      </c>
+      <c r="I352">
+        <v>106.83281519944801</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>-899</v>
       </c>
@@ -12990,8 +17532,14 @@
       <c r="G353">
         <v>138.01852908452011</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353">
+        <v>82.660044769222495</v>
+      </c>
+      <c r="I353">
+        <v>110.3392869268713</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>-894</v>
       </c>
@@ -13013,8 +17561,14 @@
       <c r="G354">
         <v>136.5848377850898</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354">
+        <v>85.029627928638092</v>
+      </c>
+      <c r="I354">
+        <v>110.80723285686391</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>-885</v>
       </c>
@@ -13036,8 +17590,14 @@
       <c r="G355">
         <v>134.54348839228561</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355">
+        <v>86.894625551776429</v>
+      </c>
+      <c r="I355">
+        <v>110.719056972031</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>-859</v>
       </c>
@@ -13059,8 +17619,14 @@
       <c r="G356">
         <v>129.08324034091379</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356">
+        <v>72.829512839173233</v>
+      </c>
+      <c r="I356">
+        <v>100.9563765900435</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>-843</v>
       </c>
@@ -13082,8 +17648,14 @@
       <c r="G357">
         <v>124.2323141677641</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357">
+        <v>60.796255752727568</v>
+      </c>
+      <c r="I357">
+        <v>92.514284960245845</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>-826</v>
       </c>
@@ -13105,8 +17677,14 @@
       <c r="G358">
         <v>119.3742750039639</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358">
+        <v>49.44736292043244</v>
+      </c>
+      <c r="I358">
+        <v>84.410818962198164</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>-812</v>
       </c>
@@ -13128,8 +17706,14 @@
       <c r="G359">
         <v>113.1559047656726</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359">
+        <v>36.471836720459628</v>
+      </c>
+      <c r="I359">
+        <v>74.813870743066104</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>-802</v>
       </c>
@@ -13151,8 +17735,14 @@
       <c r="G360">
         <v>111.3293084090225</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360">
+        <v>39.142546395284668</v>
+      </c>
+      <c r="I360">
+        <v>75.235927402153607</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>-769</v>
       </c>
@@ -13174,8 +17764,14 @@
       <c r="G361">
         <v>106.7276898932985</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361">
+        <v>28.089493310432228</v>
+      </c>
+      <c r="I361">
+        <v>67.408591601865339</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>-739</v>
       </c>
@@ -13197,8 +17793,14 @@
       <c r="G362">
         <v>105.8429656573683</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362">
+        <v>36.80634576729399</v>
+      </c>
+      <c r="I362">
+        <v>71.32465571233115</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>-726</v>
       </c>
@@ -13220,8 +17822,14 @@
       <c r="G363">
         <v>102.5491263339285</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363">
+        <v>34.469916881014939</v>
+      </c>
+      <c r="I363">
+        <v>68.509521607471697</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>-714</v>
       </c>
@@ -13243,8 +17851,14 @@
       <c r="G364">
         <v>99.071592028427617</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364">
+        <v>28.34040655197569</v>
+      </c>
+      <c r="I364">
+        <v>63.705999290201653</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>-702</v>
       </c>
@@ -13266,8 +17880,14 @@
       <c r="G365">
         <v>96.493851771270315</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365">
+        <v>30.486471028221011</v>
+      </c>
+      <c r="I365">
+        <v>63.490161399745659</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>-683</v>
       </c>
@@ -13289,8 +17909,14 @@
       <c r="G366">
         <v>101.5915601217641</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366">
+        <v>61.825016342854049</v>
+      </c>
+      <c r="I366">
+        <v>81.708288232309087</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>-645</v>
       </c>
@@ -13312,8 +17938,14 @@
       <c r="G367">
         <v>97.139402822297825</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367">
+        <v>51.881870375789049</v>
+      </c>
+      <c r="I367">
+        <v>74.510636599043437</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>-627</v>
       </c>
@@ -13335,8 +17967,14 @@
       <c r="G368">
         <v>93.87769421536396</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368">
+        <v>50.032766108715897</v>
+      </c>
+      <c r="I368">
+        <v>71.955230162039925</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>-613</v>
       </c>
@@ -13358,8 +17996,14 @@
       <c r="G369">
         <v>90.166654407669881</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369">
+        <v>47.674918274944602</v>
+      </c>
+      <c r="I369">
+        <v>68.920786341307235</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>-581</v>
       </c>
@@ -13381,8 +18025,14 @@
       <c r="G370">
         <v>86.20585211347057</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370">
+        <v>40.995174419915749</v>
+      </c>
+      <c r="I370">
+        <v>63.600513266693163</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>-566</v>
       </c>
@@ -13404,8 +18054,14 @@
       <c r="G371">
         <v>81.69856345957659</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371">
+        <v>34.525583149354361</v>
+      </c>
+      <c r="I371">
+        <v>58.112073304465468</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>-553</v>
       </c>
@@ -13427,8 +18083,14 @@
       <c r="G372">
         <v>75.637825107624423</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372">
+        <v>22.89262916606285</v>
+      </c>
+      <c r="I372">
+        <v>49.265227136843627</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>-538</v>
       </c>
@@ -13450,8 +18112,14 @@
       <c r="G373">
         <v>73.49647753669278</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373">
+        <v>23.66528366379584</v>
+      </c>
+      <c r="I373">
+        <v>48.580880600244313</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>-506</v>
       </c>
@@ -13473,8 +18141,14 @@
       <c r="G374">
         <v>73.308154070065939</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374">
+        <v>38.950206900278999</v>
+      </c>
+      <c r="I374">
+        <v>56.129180485172469</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>-491</v>
       </c>
@@ -13496,8 +18170,14 @@
       <c r="G375">
         <v>72.0687267011334</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375">
+        <v>40.577106823753098</v>
+      </c>
+      <c r="I375">
+        <v>56.322916762443242</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>-479</v>
       </c>
@@ -13519,8 +18199,14 @@
       <c r="G376">
         <v>68.397030075447717</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376">
+        <v>38.541907339756293</v>
+      </c>
+      <c r="I376">
+        <v>53.469468707601997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>-465</v>
       </c>
@@ -13542,8 +18228,14 @@
       <c r="G377">
         <v>64.5761833564722</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377">
+        <v>34.690612598149492</v>
+      </c>
+      <c r="I377">
+        <v>49.633397977310842</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>-451</v>
       </c>
@@ -13565,8 +18257,14 @@
       <c r="G378">
         <v>59.636958166285019</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378">
+        <v>27.503609986168389</v>
+      </c>
+      <c r="I378">
+        <v>43.570284076226699</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>-437</v>
       </c>
@@ -13588,8 +18286,14 @@
       <c r="G379">
         <v>55.523594621471403</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379">
+        <v>20.29457212696807</v>
+      </c>
+      <c r="I379">
+        <v>37.909083374219733</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>-409</v>
       </c>
@@ -13611,8 +18315,14 @@
       <c r="G380">
         <v>50.499727380640387</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380">
+        <v>16.33649802946648</v>
+      </c>
+      <c r="I380">
+        <v>33.418112705053431</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>-392</v>
       </c>
@@ -13634,8 +18344,14 @@
       <c r="G381">
         <v>48.204327792029233</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381">
+        <v>16.944990056954751</v>
+      </c>
+      <c r="I381">
+        <v>32.574658924491978</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>-377</v>
       </c>
@@ -13657,8 +18373,14 @@
       <c r="G382">
         <v>44.201143772746818</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382">
+        <v>12.588084393803589</v>
+      </c>
+      <c r="I382">
+        <v>28.394614083275201</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>-358</v>
       </c>
@@ -13680,8 +18402,14 @@
       <c r="G383">
         <v>40.661741501383929</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383">
+        <v>13.005557844917851</v>
+      </c>
+      <c r="I383">
+        <v>26.833649673150891</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>-328</v>
       </c>
@@ -13703,8 +18431,14 @@
       <c r="G384">
         <v>36.824444449983183</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384">
+        <v>9.9216447868696829</v>
+      </c>
+      <c r="I384">
+        <v>23.37304461842643</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>-310</v>
       </c>
@@ -13726,8 +18460,14 @@
       <c r="G385">
         <v>34.275613164158997</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385">
+        <v>10.876453148603151</v>
+      </c>
+      <c r="I385">
+        <v>22.576033156381069</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>-297</v>
       </c>
@@ -13749,8 +18489,14 @@
       <c r="G386">
         <v>30.694369152869509</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386">
+        <v>13.70912741102984</v>
+      </c>
+      <c r="I386">
+        <v>22.20174828194968</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>-282</v>
       </c>
@@ -13772,8 +18518,14 @@
       <c r="G387">
         <v>30.745533522837832</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387">
+        <v>21.99487194402036</v>
+      </c>
+      <c r="I387">
+        <v>26.3702027334291</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>-267</v>
       </c>
@@ -13795,8 +18547,14 @@
       <c r="G388">
         <v>28.068605130679749</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388">
+        <v>24.988719457785141</v>
+      </c>
+      <c r="I388">
+        <v>26.528662294232451</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>-235</v>
       </c>
@@ -13818,8 +18576,14 @@
       <c r="G389">
         <v>26.654708208884109</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389">
+        <v>31.605662132035519</v>
+      </c>
+      <c r="I389">
+        <v>29.130185170459811</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>-208</v>
       </c>
@@ -13841,8 +18605,14 @@
       <c r="G390">
         <v>26.17524070483692</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390">
+        <v>38.225461531264749</v>
+      </c>
+      <c r="I390">
+        <v>32.200351118050833</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>-191</v>
       </c>
@@ -13863,6 +18633,12 @@
       </c>
       <c r="G391">
         <v>25.250240499549388</v>
+      </c>
+      <c r="H391">
+        <v>37.154849674669073</v>
+      </c>
+      <c r="I391">
+        <v>31.202545087109229</v>
       </c>
     </row>
   </sheetData>
